--- a/kc/kc_data_dict.xlsx
+++ b/kc/kc_data_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Classes\W210 - Capstone\NYCTrafficCollisions\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1136FA6-EF95-47DF-9F15-C57A30D8BD06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2073A015-A4C5-4D77-8445-9309AFB17C29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4830" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="286">
   <si>
     <t>Variable</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Vehicle Registration State</t>
   </si>
   <si>
-    <t>State #</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Minivans</t>
   </si>
   <si>
-    <t>20, 21, 22, 28 29</t>
-  </si>
-  <si>
     <t>Trucks</t>
   </si>
   <si>
@@ -173,15 +167,6 @@
     <t>Motorcycles, Mopeds, ATVs</t>
   </si>
   <si>
-    <t>80-90</t>
-  </si>
-  <si>
-    <t>60-79</t>
-  </si>
-  <si>
-    <t>6, 10, 11, 12 15</t>
-  </si>
-  <si>
     <t>Station Wagons (excld vans &amp; trucks)</t>
   </si>
   <si>
@@ -194,12 +179,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>98-99</t>
-  </si>
-  <si>
-    <t>mode_year</t>
-  </si>
-  <si>
     <t>Model Year</t>
   </si>
   <si>
@@ -266,9 +245,6 @@
     <t>Unkown</t>
   </si>
   <si>
-    <t>all else</t>
-  </si>
-  <si>
     <t>deformed</t>
   </si>
   <si>
@@ -341,9 +317,6 @@
     <t>8,9</t>
   </si>
   <si>
-    <t>vlanenum</t>
-  </si>
-  <si>
     <t>Total Lanes in Roadway</t>
   </si>
   <si>
@@ -446,12 +419,6 @@
     <t>Stop Sign</t>
   </si>
   <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>21-30</t>
-  </si>
-  <si>
     <t>Other Regulator Sign (Yield, etc)</t>
   </si>
   <si>
@@ -761,9 +728,6 @@
     <t>Crash Type</t>
   </si>
   <si>
-    <t>acc_typ</t>
-  </si>
-  <si>
     <t>Goes a bit crazy, top 5</t>
   </si>
   <si>
@@ -782,9 +746,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Loo up in data dict</t>
-  </si>
-  <si>
     <t>veh_aux</t>
   </si>
   <si>
@@ -834,6 +795,96 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>20, 21, 22, 28, 29</t>
+  </si>
+  <si>
+    <t>6, 10, 11, 12, 15</t>
+  </si>
+  <si>
+    <t>9999 = all else</t>
+  </si>
+  <si>
+    <t>998,999</t>
+  </si>
+  <si>
+    <t>Look up in dataset</t>
+  </si>
+  <si>
+    <t>80:90</t>
+  </si>
+  <si>
+    <t>60:79</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>vnum_lan</t>
+  </si>
+  <si>
+    <t>acc_type</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Vehicle Model</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Light Trucks</t>
+  </si>
+  <si>
+    <t>401:499</t>
+  </si>
+  <si>
+    <t>1:399</t>
+  </si>
+  <si>
+    <t>Low Speed Electric Vehicles (Golf Carts?)</t>
+  </si>
+  <si>
+    <t>598:599</t>
+  </si>
+  <si>
+    <t>Motorcycles/Mopeds</t>
+  </si>
+  <si>
+    <t>701:799</t>
+  </si>
+  <si>
+    <t>ATVs</t>
+  </si>
+  <si>
+    <t>731:734</t>
+  </si>
+  <si>
+    <t>Medium/Heavy Trucks</t>
+  </si>
+  <si>
+    <t>801:899</t>
+  </si>
+  <si>
+    <t>Motor Homes</t>
+  </si>
+  <si>
+    <t>870:898</t>
+  </si>
+  <si>
+    <t>901:989</t>
+  </si>
+  <si>
+    <t>Other Vehicles</t>
+  </si>
+  <si>
+    <t>mod_year</t>
   </si>
 </sst>
 </file>
@@ -869,11 +920,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,9 +1241,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FB29DA-B7F0-47F0-877E-10B77E041BFB}">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1201,7 +1256,7 @@
     <col min="6" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1221,13 +1276,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1240,14 +1298,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1325,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1355,25 +1410,22 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1382,21 +1434,21 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1405,21 +1457,21 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1428,21 +1480,21 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1451,22 +1503,22 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
@@ -1474,21 +1526,21 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1503,33 +1555,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="1"/>
       <c r="H14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1538,21 +1590,21 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1561,10 +1613,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1572,10 +1624,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1584,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,10 +1647,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1607,10 +1659,10 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1618,10 +1670,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1630,10 +1682,10 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1641,11 +1693,11 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
@@ -1653,10 +1705,10 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1664,10 +1716,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -1676,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,10 +1739,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1699,10 +1751,10 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1710,10 +1762,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -1722,10 +1774,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1733,10 +1785,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1745,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,10 +1808,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -1768,10 +1820,10 @@
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="G25">
+        <v>9999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1779,10 +1831,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -1791,10 +1843,10 @@
         <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1802,10 +1854,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1816,19 +1868,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1839,19 +1891,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1862,19 +1914,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1885,10 +1937,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1899,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1911,7 +1963,7 @@
         <v>997</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>997</v>
@@ -1922,10 +1974,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -1934,10 +1986,10 @@
         <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="3">
-        <v>998999</v>
+        <v>48</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,10 +1997,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -1968,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
@@ -1983,7 +2035,7 @@
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,10 +2043,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -2014,10 +2066,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -2026,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2037,10 +2089,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -2049,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>9999</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,10 +2112,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -2072,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G39">
         <v>9</v>
@@ -2083,10 +2135,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -2095,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -2106,10 +2158,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -2118,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2129,10 +2181,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
@@ -2141,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2152,10 +2204,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
@@ -2164,7 +2216,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G43">
         <v>9</v>
@@ -2175,10 +2227,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
@@ -2187,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2198,10 +2250,10 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
@@ -2210,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45">
         <v>12</v>
@@ -2221,10 +2273,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
@@ -2233,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -2244,10 +2296,10 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -2256,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2267,10 +2319,10 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
@@ -2279,7 +2331,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -2290,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -2302,10 +2354,10 @@
         <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="G49">
+        <v>9999</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2313,10 +2365,10 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -2325,7 +2377,7 @@
         <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G50">
         <v>99</v>
@@ -2336,10 +2388,10 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -2348,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2359,10 +2411,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
@@ -2371,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2382,10 +2434,10 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -2394,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2405,10 +2457,10 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
@@ -2417,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -2428,10 +2480,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -2440,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -2451,19 +2503,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
         <v>94</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>102</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2474,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -2486,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,10 +2566,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -2526,10 +2578,10 @@
         <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,16 +2589,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2554,10 +2606,10 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -2566,10 +2618,10 @@
         <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2577,10 +2629,10 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -2589,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2600,10 +2652,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
@@ -2612,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2623,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
@@ -2635,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,10 +2698,10 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -2658,10 +2710,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,10 +2721,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -2681,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2692,10 +2744,10 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
@@ -2704,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2715,10 +2767,10 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -2727,10 +2779,10 @@
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G68" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="G68">
+        <v>9999</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,10 +2790,10 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -2750,10 +2802,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,10 +2813,10 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -2773,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2784,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -2796,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2807,10 +2859,10 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -2819,10 +2871,10 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,10 +2882,10 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -2842,10 +2894,10 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G73" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,10 +2905,10 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
@@ -2865,10 +2917,10 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G74" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,10 +2928,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -2888,10 +2940,10 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G75" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,10 +2951,10 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
@@ -2911,10 +2963,10 @@
         <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G76" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,10 +2974,10 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -2934,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2945,10 +2997,10 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
         <v>16</v>
@@ -2957,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>137</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -2980,7 +3032,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G79">
         <v>20</v>
@@ -2991,10 +3043,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -3003,10 +3055,10 @@
         <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,10 +3066,10 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
@@ -3026,7 +3078,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G81">
         <v>40</v>
@@ -3037,10 +3089,10 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
@@ -3049,10 +3101,10 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
-      </c>
-      <c r="G82" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+      <c r="G82">
+        <v>9999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,10 +3112,10 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -3072,10 +3124,10 @@
         <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,10 +3135,10 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
         <v>16</v>
@@ -3095,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3106,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
@@ -3118,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -3129,10 +3181,10 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
@@ -3141,10 +3193,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G86" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,10 +3204,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
@@ -3164,10 +3216,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,10 +3227,10 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
         <v>16</v>
@@ -3187,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3198,10 +3250,10 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
@@ -3210,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3221,10 +3273,10 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
@@ -3233,10 +3285,10 @@
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G90" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,10 +3296,10 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -3256,7 +3308,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -3267,10 +3319,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
@@ -3279,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G92">
         <v>9</v>
@@ -3290,10 +3342,10 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D93" t="s">
         <v>16</v>
@@ -3302,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3313,10 +3365,10 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
@@ -3325,10 +3377,10 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G94" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3336,10 +3388,10 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
@@ -3348,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -3359,10 +3411,10 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
@@ -3371,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G96">
         <v>6</v>
@@ -3382,10 +3434,10 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
@@ -3394,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -3405,10 +3457,10 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
@@ -3417,7 +3469,7 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G98">
         <v>11</v>
@@ -3428,10 +3480,10 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D99" t="s">
         <v>16</v>
@@ -3440,7 +3492,7 @@
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G99">
         <v>15</v>
@@ -3451,10 +3503,10 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
         <v>16</v>
@@ -3463,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3474,10 +3526,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
@@ -3486,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -3497,10 +3549,10 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D102" t="s">
         <v>16</v>
@@ -3509,10 +3561,10 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>54</v>
-      </c>
-      <c r="G102" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="G102">
+        <v>9999</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3520,10 +3572,10 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D103" t="s">
         <v>16</v>
@@ -3532,10 +3584,10 @@
         <v>99</v>
       </c>
       <c r="F103" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G103" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3543,10 +3595,10 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
@@ -3555,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3573,7 +3625,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s">
         <v>16</v>
@@ -3582,13 +3634,13 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G105">
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3600,7 +3652,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D106" t="s">
         <v>16</v>
@@ -3609,13 +3661,13 @@
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3627,7 +3679,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
@@ -3636,13 +3688,13 @@
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G107">
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,7 +3706,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C108" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D108" t="s">
         <v>16</v>
@@ -3663,13 +3715,13 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G108">
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3681,7 +3733,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C109" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -3690,13 +3742,13 @@
         <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G109">
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3708,7 +3760,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
@@ -3717,13 +3769,13 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G110">
         <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3735,7 +3787,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C111" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D111" t="s">
         <v>16</v>
@@ -3744,13 +3796,13 @@
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G111">
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3762,7 +3814,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D112" t="s">
         <v>16</v>
@@ -3771,13 +3823,13 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G112">
         <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3789,7 +3841,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C113" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
@@ -3798,13 +3850,13 @@
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G113">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3816,7 +3868,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C114" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
@@ -3825,13 +3877,13 @@
         <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G114">
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3843,7 +3895,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D115" t="s">
         <v>16</v>
@@ -3852,13 +3904,13 @@
         <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G115">
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3870,7 +3922,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
@@ -3879,13 +3931,13 @@
         <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G116">
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3897,7 +3949,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
@@ -3906,13 +3958,13 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G117">
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3924,7 +3976,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D118" t="s">
         <v>16</v>
@@ -3933,13 +3985,13 @@
         <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G118">
         <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3951,7 +4003,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D119" t="s">
         <v>16</v>
@@ -3960,13 +4012,13 @@
         <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G119">
         <v>16</v>
       </c>
       <c r="H119" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3978,7 +4030,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C120" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D120" t="s">
         <v>16</v>
@@ -3987,13 +4039,13 @@
         <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G120">
         <v>17</v>
       </c>
       <c r="H120" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4005,7 +4057,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D121" t="s">
         <v>16</v>
@@ -4014,13 +4066,13 @@
         <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G121">
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4032,7 +4084,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D122" t="s">
         <v>16</v>
@@ -4041,13 +4093,13 @@
         <v>19</v>
       </c>
       <c r="F122" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G122">
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4059,7 +4111,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D123" t="s">
         <v>16</v>
@@ -4068,13 +4120,13 @@
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G123">
         <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4086,7 +4138,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C124" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D124" t="s">
         <v>16</v>
@@ -4095,13 +4147,13 @@
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G124">
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4113,7 +4165,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D125" t="s">
         <v>16</v>
@@ -4122,13 +4174,13 @@
         <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G125">
         <v>50</v>
       </c>
       <c r="H125" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4140,7 +4192,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C126" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D126" t="s">
         <v>16</v>
@@ -4149,13 +4201,13 @@
         <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G126">
         <v>51</v>
       </c>
       <c r="H126" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4167,7 +4219,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D127" t="s">
         <v>16</v>
@@ -4176,13 +4228,13 @@
         <v>52</v>
       </c>
       <c r="F127" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G127">
         <v>52</v>
       </c>
       <c r="H127" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4194,7 +4246,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
         <v>16</v>
@@ -4203,13 +4255,13 @@
         <v>53</v>
       </c>
       <c r="F128" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G128">
         <v>53</v>
       </c>
       <c r="H128" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4221,7 +4273,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D129" t="s">
         <v>16</v>
@@ -4230,13 +4282,13 @@
         <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G129">
         <v>54</v>
       </c>
       <c r="H129" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,7 +4300,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C130" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D130" t="s">
         <v>16</v>
@@ -4257,13 +4309,13 @@
         <v>55</v>
       </c>
       <c r="F130" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G130">
         <v>55</v>
       </c>
       <c r="H130" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4275,7 +4327,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -4284,13 +4336,13 @@
         <v>56</v>
       </c>
       <c r="F131" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G131">
         <v>56</v>
       </c>
       <c r="H131" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4302,7 +4354,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D132" t="s">
         <v>16</v>
@@ -4311,13 +4363,13 @@
         <v>59</v>
       </c>
       <c r="F132" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G132">
         <v>59</v>
       </c>
       <c r="H132" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4329,7 +4381,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D133" t="s">
         <v>16</v>
@@ -4338,13 +4390,13 @@
         <v>55</v>
       </c>
       <c r="F133" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G133">
         <v>55</v>
       </c>
       <c r="H133" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4356,7 +4408,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C134" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D134" t="s">
         <v>16</v>
@@ -4365,13 +4417,13 @@
         <v>56</v>
       </c>
       <c r="F134" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G134">
         <v>56</v>
       </c>
       <c r="H134" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4383,7 +4435,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D135" t="s">
         <v>16</v>
@@ -4392,13 +4444,13 @@
         <v>59</v>
       </c>
       <c r="F135" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G135">
         <v>59</v>
       </c>
       <c r="H135" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,7 +4462,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C136" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D136" t="s">
         <v>16</v>
@@ -4419,13 +4471,13 @@
         <v>60</v>
       </c>
       <c r="F136" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G136">
         <v>60</v>
       </c>
       <c r="H136" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4437,7 +4489,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C137" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D137" t="s">
         <v>16</v>
@@ -4446,13 +4498,13 @@
         <v>61</v>
       </c>
       <c r="F137" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G137">
         <v>61</v>
       </c>
       <c r="H137" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4464,7 +4516,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D138" t="s">
         <v>16</v>
@@ -4473,13 +4525,13 @@
         <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G138">
         <v>62</v>
       </c>
       <c r="H138" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4491,7 +4543,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C139" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D139" t="s">
         <v>16</v>
@@ -4500,13 +4552,13 @@
         <v>63</v>
       </c>
       <c r="F139" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G139">
         <v>63</v>
       </c>
       <c r="H139" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4518,7 +4570,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C140" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
@@ -4527,13 +4579,13 @@
         <v>64</v>
       </c>
       <c r="F140" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G140">
         <v>64</v>
       </c>
       <c r="H140" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4545,7 +4597,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D141" t="s">
         <v>16</v>
@@ -4554,13 +4606,13 @@
         <v>65</v>
       </c>
       <c r="F141" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G141">
         <v>65</v>
       </c>
       <c r="H141" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,7 +4624,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C142" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D142" t="s">
         <v>16</v>
@@ -4581,13 +4633,13 @@
         <v>66</v>
       </c>
       <c r="F142" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G142">
         <v>66</v>
       </c>
       <c r="H142" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4599,7 +4651,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D143" t="s">
         <v>16</v>
@@ -4608,13 +4660,13 @@
         <v>67</v>
       </c>
       <c r="F143" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G143">
         <v>67</v>
       </c>
       <c r="H143" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4626,7 +4678,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D144" t="s">
         <v>16</v>
@@ -4635,13 +4687,13 @@
         <v>68</v>
       </c>
       <c r="F144" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G144">
         <v>68</v>
       </c>
       <c r="H144" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4653,7 +4705,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D145" t="s">
         <v>16</v>
@@ -4662,13 +4714,13 @@
         <v>70</v>
       </c>
       <c r="F145" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G145">
         <v>70</v>
       </c>
       <c r="H145" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4680,7 +4732,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D146" t="s">
         <v>16</v>
@@ -4689,13 +4741,13 @@
         <v>71</v>
       </c>
       <c r="F146" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G146">
         <v>71</v>
       </c>
       <c r="H146" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,7 +4759,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D147" t="s">
         <v>16</v>
@@ -4716,13 +4768,13 @@
         <v>72</v>
       </c>
       <c r="F147" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G147">
         <v>72</v>
       </c>
       <c r="H147" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4734,7 +4786,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D148" t="s">
         <v>16</v>
@@ -4743,13 +4795,13 @@
         <v>73</v>
       </c>
       <c r="F148" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G148">
         <v>73</v>
       </c>
       <c r="H148" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4761,7 +4813,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D149" t="s">
         <v>16</v>
@@ -4770,13 +4822,13 @@
         <v>74</v>
       </c>
       <c r="F149" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G149">
         <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4788,7 +4840,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C150" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
         <v>16</v>
@@ -4797,13 +4849,13 @@
         <v>78</v>
       </c>
       <c r="F150" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G150">
         <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4815,7 +4867,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D151" t="s">
         <v>16</v>
@@ -4824,13 +4876,13 @@
         <v>80</v>
       </c>
       <c r="F151" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G151">
         <v>80</v>
       </c>
       <c r="H151" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4842,7 +4894,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C152" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D152" t="s">
         <v>16</v>
@@ -4851,13 +4903,13 @@
         <v>81</v>
       </c>
       <c r="F152" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G152">
         <v>81</v>
       </c>
       <c r="H152" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4869,7 +4921,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C153" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
@@ -4878,13 +4930,13 @@
         <v>82</v>
       </c>
       <c r="F153" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G153">
         <v>82</v>
       </c>
       <c r="H153" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4896,7 +4948,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D154" t="s">
         <v>16</v>
@@ -4905,13 +4957,13 @@
         <v>83</v>
       </c>
       <c r="F154" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G154">
         <v>83</v>
       </c>
       <c r="H154" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4923,7 +4975,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D155" t="s">
         <v>16</v>
@@ -4932,13 +4984,13 @@
         <v>84</v>
       </c>
       <c r="F155" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G155">
         <v>84</v>
       </c>
       <c r="H155" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4950,7 +5002,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C156" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D156" t="s">
         <v>16</v>
@@ -4959,13 +5011,13 @@
         <v>85</v>
       </c>
       <c r="F156" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G156">
         <v>85</v>
       </c>
       <c r="H156" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4977,7 +5029,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C157" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D157" t="s">
         <v>16</v>
@@ -4986,13 +5038,13 @@
         <v>87</v>
       </c>
       <c r="F157" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G157">
         <v>87</v>
       </c>
       <c r="H157" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5004,7 +5056,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D158" t="s">
         <v>16</v>
@@ -5013,13 +5065,13 @@
         <v>88</v>
       </c>
       <c r="F158" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G158">
         <v>88</v>
       </c>
       <c r="H158" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5031,7 +5083,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
@@ -5040,13 +5092,13 @@
         <v>89</v>
       </c>
       <c r="F159" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="G159">
         <v>89</v>
       </c>
       <c r="H159" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5058,7 +5110,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C160" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D160" t="s">
         <v>16</v>
@@ -5067,13 +5119,13 @@
         <v>90</v>
       </c>
       <c r="F160" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G160">
         <v>90</v>
       </c>
       <c r="H160" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5085,7 +5137,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C161" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D161" t="s">
         <v>16</v>
@@ -5094,13 +5146,13 @@
         <v>91</v>
       </c>
       <c r="F161" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G161">
         <v>91</v>
       </c>
       <c r="H161" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5112,7 +5164,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C162" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D162" t="s">
         <v>16</v>
@@ -5121,13 +5173,13 @@
         <v>92</v>
       </c>
       <c r="F162" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G162">
         <v>92</v>
       </c>
       <c r="H162" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5139,7 +5191,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C163" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D163" t="s">
         <v>16</v>
@@ -5148,13 +5200,13 @@
         <v>98</v>
       </c>
       <c r="F163" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G163">
         <v>98</v>
       </c>
       <c r="H163" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,7 +5218,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C164" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
@@ -5186,10 +5238,10 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C165" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D165" t="s">
         <v>16</v>
@@ -5198,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5209,10 +5261,10 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C166" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D166" t="s">
         <v>16</v>
@@ -5221,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -5232,10 +5284,10 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C167" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D167" t="s">
         <v>16</v>
@@ -5244,10 +5296,10 @@
         <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>233</v>
-      </c>
-      <c r="G167" t="s">
-        <v>79</v>
+        <v>222</v>
+      </c>
+      <c r="G167">
+        <v>9999</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5255,10 +5307,10 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C168" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D168" t="s">
         <v>16</v>
@@ -5267,7 +5319,7 @@
         <v>99</v>
       </c>
       <c r="F168" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G168">
         <v>99</v>
@@ -5278,10 +5330,10 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C169" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
@@ -5290,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5301,10 +5353,10 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C170" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D170" t="s">
         <v>16</v>
@@ -5313,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -5324,10 +5376,10 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C171" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D171" t="s">
         <v>16</v>
@@ -5336,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -5347,10 +5399,10 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C172" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D172" t="s">
         <v>16</v>
@@ -5359,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -5370,10 +5422,10 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C173" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
@@ -5382,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G173">
         <v>4</v>
@@ -5393,10 +5445,10 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C174" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D174" t="s">
         <v>16</v>
@@ -5405,7 +5457,7 @@
         <v>5</v>
       </c>
       <c r="F174" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G174">
         <v>5</v>
@@ -5416,10 +5468,10 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C175" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D175" t="s">
         <v>16</v>
@@ -5428,7 +5480,7 @@
         <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G175">
         <v>6</v>
@@ -5439,10 +5491,10 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C176" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D176" t="s">
         <v>16</v>
@@ -5451,7 +5503,7 @@
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G176">
         <v>7</v>
@@ -5462,10 +5514,10 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C177" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D177" t="s">
         <v>16</v>
@@ -5485,10 +5537,10 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C178" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D178" t="s">
         <v>16</v>
@@ -5497,13 +5549,13 @@
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G178">
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5511,10 +5563,10 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C179" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D179" t="s">
         <v>16</v>
@@ -5523,13 +5575,13 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5537,10 +5589,10 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C180" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D180" t="s">
         <v>16</v>
@@ -5549,13 +5601,13 @@
         <v>6</v>
       </c>
       <c r="F180" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G180">
         <v>6</v>
       </c>
       <c r="H180" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5563,10 +5615,10 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C181" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D181" t="s">
         <v>16</v>
@@ -5575,13 +5627,13 @@
         <v>50</v>
       </c>
       <c r="F181" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G181">
         <v>50</v>
       </c>
       <c r="H181" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5589,10 +5641,10 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C182" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D182" t="s">
         <v>16</v>
@@ -5601,13 +5653,13 @@
         <v>51</v>
       </c>
       <c r="F182" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G182">
         <v>51</v>
       </c>
       <c r="H182" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5615,10 +5667,10 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C183" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D183" t="s">
         <v>16</v>
@@ -5627,13 +5679,13 @@
         <v>98</v>
       </c>
       <c r="F183" t="s">
-        <v>54</v>
-      </c>
-      <c r="G183" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="G183">
+        <v>9999</v>
       </c>
       <c r="H183" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5641,10 +5693,10 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C184" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
@@ -5659,18 +5711,18 @@
         <v>99</v>
       </c>
       <c r="H184" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B185" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C185" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D185" t="s">
         <v>16</v>
@@ -5679,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -5687,13 +5739,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C186" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
@@ -5710,13 +5762,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B187" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C187" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D187" t="s">
         <v>16</v>
@@ -5725,7 +5777,7 @@
         <v>99</v>
       </c>
       <c r="F187" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G187">
         <v>99</v>
@@ -5733,13 +5785,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C188" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D188" t="s">
         <v>16</v>
@@ -5748,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -5756,13 +5808,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B189" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C189" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D189" t="s">
         <v>16</v>
@@ -5771,7 +5823,7 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -5779,13 +5831,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B190" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C190" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D190" t="s">
         <v>16</v>
@@ -5794,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="F190" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -5802,13 +5854,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B191" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D191" t="s">
         <v>16</v>
@@ -5817,7 +5869,7 @@
         <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G191">
         <v>4</v>
@@ -5825,13 +5877,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B192" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C192" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D192" t="s">
         <v>16</v>
@@ -5840,7 +5892,7 @@
         <v>5</v>
       </c>
       <c r="F192" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G192">
         <v>5</v>
@@ -5848,13 +5900,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B193" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C193" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D193" t="s">
         <v>16</v>
@@ -5863,7 +5915,7 @@
         <v>6</v>
       </c>
       <c r="F193" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -5871,13 +5923,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B194" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C194" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D194" t="s">
         <v>16</v>
@@ -5894,13 +5946,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B195" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C195" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D195" t="s">
         <v>16</v>
@@ -5909,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -5917,13 +5969,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C196" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D196" t="s">
         <v>16</v>
@@ -5932,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -5940,13 +5992,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B197" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C197" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D197" t="s">
         <v>16</v>
@@ -5955,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -5963,13 +6015,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B198" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C198" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D198" t="s">
         <v>16</v>
@@ -5978,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -5986,13 +6038,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B199" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C199" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D199" t="s">
         <v>16</v>
@@ -6001,7 +6053,7 @@
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G199">
         <v>5</v>
@@ -6009,13 +6061,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B200" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C200" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D200" t="s">
         <v>16</v>
@@ -6024,7 +6076,7 @@
         <v>6</v>
       </c>
       <c r="F200" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G200">
         <v>6</v>
@@ -6032,13 +6084,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B201" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C201" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
@@ -6055,13 +6107,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B202" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C202" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D202" t="s">
         <v>16</v>
@@ -6070,7 +6122,7 @@
         <v>99</v>
       </c>
       <c r="F202" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G202">
         <v>99</v>
@@ -6078,13 +6130,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>239</v>
+      </c>
+      <c r="B203" t="s">
         <v>252</v>
       </c>
-      <c r="B203" t="s">
-        <v>265</v>
-      </c>
       <c r="C203" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D203" t="s">
         <v>16</v>
@@ -6093,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -6101,13 +6153,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>239</v>
+      </c>
+      <c r="B204" t="s">
         <v>252</v>
       </c>
-      <c r="B204" t="s">
-        <v>265</v>
-      </c>
       <c r="C204" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D204" t="s">
         <v>16</v>
@@ -6116,7 +6168,7 @@
         <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -6124,13 +6176,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>239</v>
+      </c>
+      <c r="B205" t="s">
         <v>252</v>
       </c>
-      <c r="B205" t="s">
-        <v>265</v>
-      </c>
       <c r="C205" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D205" t="s">
         <v>16</v>
@@ -6147,13 +6199,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>239</v>
+      </c>
+      <c r="B206" t="s">
         <v>252</v>
       </c>
-      <c r="B206" t="s">
-        <v>265</v>
-      </c>
       <c r="C206" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D206" t="s">
         <v>16</v>
@@ -6162,10 +6214,263 @@
         <v>4</v>
       </c>
       <c r="F206" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G206">
         <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>267</v>
+      </c>
+      <c r="C207" t="s">
+        <v>268</v>
+      </c>
+      <c r="D207" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>269</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>267</v>
+      </c>
+      <c r="C208" t="s">
+        <v>268</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208" t="s">
+        <v>270</v>
+      </c>
+      <c r="G208" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>267</v>
+      </c>
+      <c r="C209" t="s">
+        <v>268</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209" t="s">
+        <v>273</v>
+      </c>
+      <c r="G209" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>267</v>
+      </c>
+      <c r="C210" t="s">
+        <v>268</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s">
+        <v>275</v>
+      </c>
+      <c r="G210" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>267</v>
+      </c>
+      <c r="C211" t="s">
+        <v>268</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211" t="s">
+        <v>277</v>
+      </c>
+      <c r="G211" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>267</v>
+      </c>
+      <c r="C212" t="s">
+        <v>268</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>279</v>
+      </c>
+      <c r="G212" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>267</v>
+      </c>
+      <c r="C213" t="s">
+        <v>268</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213">
+        <v>7</v>
+      </c>
+      <c r="F213" t="s">
+        <v>281</v>
+      </c>
+      <c r="G213">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>267</v>
+      </c>
+      <c r="C214" t="s">
+        <v>268</v>
+      </c>
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214">
+        <v>8</v>
+      </c>
+      <c r="F214" t="s">
+        <v>270</v>
+      </c>
+      <c r="G214" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>267</v>
+      </c>
+      <c r="C215" t="s">
+        <v>268</v>
+      </c>
+      <c r="D215" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215">
+        <v>9</v>
+      </c>
+      <c r="F215" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>267</v>
+      </c>
+      <c r="C216" t="s">
+        <v>268</v>
+      </c>
+      <c r="D216" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216">
+        <v>998</v>
+      </c>
+      <c r="F216" t="s">
+        <v>284</v>
+      </c>
+      <c r="G216">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>267</v>
+      </c>
+      <c r="C217" t="s">
+        <v>268</v>
+      </c>
+      <c r="D217" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217">
+        <v>999</v>
+      </c>
+      <c r="F217" t="s">
+        <v>85</v>
+      </c>
+      <c r="G217" s="2">
+        <v>997998</v>
       </c>
     </row>
   </sheetData>
@@ -6219,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6230,10 +6535,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6241,10 +6546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/kc/kc_data_dict.xlsx
+++ b/kc/kc_data_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Classes\W210 - Capstone\NYCTrafficCollisions\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2073A015-A4C5-4D77-8445-9309AFB17C29}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C849B-9F9B-4332-BA05-3A7F3122F7AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="288">
   <si>
     <t>Variable</t>
   </si>
@@ -59,9 +59,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
@@ -885,6 +882,15 @@
   </si>
   <si>
     <t>mod_year</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Numeric</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FB29DA-B7F0-47F0-877E-10B77E041BFB}">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1276,13 +1282,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1296,10 +1302,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>285</v>
       </c>
       <c r="H2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1313,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>99</v>
@@ -1322,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>99</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1330,19 +1339,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1353,19 +1362,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1376,25 +1385,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1402,19 +1411,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1422,22 +1431,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1445,19 +1454,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1468,19 +1477,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1491,19 +1500,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1514,19 +1523,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1537,19 +1546,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>99</v>
@@ -1560,17 +1569,17 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1"/>
       <c r="H14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,19 +1587,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1601,22 +1610,22 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1624,22 +1633,22 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1647,22 +1656,22 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1670,22 +1679,22 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
         <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1693,22 +1702,22 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1716,22 +1725,22 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1739,22 +1748,22 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,22 +1771,22 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,22 +1794,22 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
         <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,19 +1817,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>9999</v>
@@ -1831,22 +1840,22 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1854,13 +1863,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,19 +1877,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1891,19 +1900,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1914,19 +1923,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1937,13 +1946,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1951,19 +1960,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>152</v>
+      </c>
+      <c r="F32" t="s">
         <v>60</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>997</v>
-      </c>
-      <c r="F32" t="s">
-        <v>61</v>
       </c>
       <c r="G32">
         <v>997</v>
@@ -1974,22 +1983,22 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>999</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1997,19 +2006,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2020,22 +2029,22 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,19 +2052,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2066,22 +2075,22 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2089,19 +2098,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
         <v>67</v>
       </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38">
         <v>9999</v>
@@ -2112,19 +2121,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39">
         <v>9</v>
@@ -2135,19 +2144,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
         <v>72</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -2158,19 +2167,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
         <v>72</v>
       </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -2181,19 +2190,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
         <v>72</v>
       </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2204,19 +2213,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
         <v>72</v>
       </c>
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G43">
         <v>9</v>
@@ -2227,19 +2236,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="C44" t="s">
-        <v>73</v>
-      </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2250,19 +2259,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
         <v>78</v>
       </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45">
         <v>12</v>
@@ -2273,19 +2282,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -2296,19 +2305,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
         <v>78</v>
       </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2319,19 +2328,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
         <v>78</v>
       </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -2342,19 +2351,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
         <v>78</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G49">
         <v>9999</v>
@@ -2365,19 +2374,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
         <v>78</v>
       </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50">
         <v>99</v>
@@ -2388,19 +2397,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
         <v>86</v>
       </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2411,19 +2420,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
         <v>86</v>
       </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2434,22 +2443,22 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
         <v>86</v>
       </c>
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" t="s">
         <v>91</v>
-      </c>
-      <c r="G53" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2457,19 +2466,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
         <v>86</v>
       </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -2480,19 +2489,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
         <v>86</v>
       </c>
-      <c r="C55" t="s">
-        <v>87</v>
-      </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -2503,19 +2512,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
         <v>86</v>
       </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2526,22 +2535,22 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
         <v>86</v>
       </c>
-      <c r="C57" t="s">
-        <v>87</v>
-      </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,16 +2558,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,22 +2575,22 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,16 +2598,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
         <v>99</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
         <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2606,22 +2615,22 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
         <v>99</v>
       </c>
-      <c r="C61" t="s">
-        <v>100</v>
-      </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2629,19 +2638,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2652,19 +2661,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2675,22 +2684,22 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" t="s">
         <v>106</v>
-      </c>
-      <c r="G64" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,22 +2707,22 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2721,19 +2730,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
         <v>108</v>
       </c>
-      <c r="C66" t="s">
-        <v>109</v>
-      </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2744,19 +2753,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
         <v>108</v>
       </c>
-      <c r="C67" t="s">
-        <v>109</v>
-      </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2767,19 +2776,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
         <v>108</v>
       </c>
-      <c r="C68" t="s">
-        <v>109</v>
-      </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G68">
         <v>9999</v>
@@ -2790,22 +2799,22 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
         <v>108</v>
       </c>
-      <c r="C69" t="s">
-        <v>109</v>
-      </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,19 +2822,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" t="s">
         <v>114</v>
       </c>
-      <c r="C70" t="s">
-        <v>115</v>
-      </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2836,19 +2845,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
         <v>114</v>
       </c>
-      <c r="C71" t="s">
-        <v>115</v>
-      </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2859,22 +2868,22 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
         <v>114</v>
       </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2882,22 +2891,22 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" t="s">
         <v>114</v>
       </c>
-      <c r="C73" t="s">
-        <v>115</v>
-      </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
       <c r="F73" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" t="s">
         <v>117</v>
-      </c>
-      <c r="G73" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,22 +2914,22 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="s">
         <v>114</v>
       </c>
-      <c r="C74" t="s">
-        <v>115</v>
-      </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2928,22 +2937,22 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
         <v>114</v>
       </c>
-      <c r="C75" t="s">
-        <v>115</v>
-      </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>5</v>
       </c>
       <c r="F75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" t="s">
         <v>122</v>
-      </c>
-      <c r="G75" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,22 +2960,22 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
         <v>114</v>
       </c>
-      <c r="C76" t="s">
-        <v>115</v>
-      </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,19 +2983,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2997,22 +3006,22 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,19 +3029,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G79">
         <v>20</v>
@@ -3043,22 +3052,22 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,19 +3075,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G81">
         <v>40</v>
@@ -3089,19 +3098,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G82">
         <v>9999</v>
@@ -3112,22 +3121,22 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,19 +3144,19 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3158,19 +3167,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85">
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -3181,22 +3190,22 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" t="s">
         <v>137</v>
-      </c>
-      <c r="G86" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,22 +3213,22 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,19 +3236,19 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3250,19 +3259,19 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3273,22 +3282,22 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90" t="s">
+        <v>143</v>
+      </c>
+      <c r="G90" t="s">
         <v>144</v>
-      </c>
-      <c r="G90" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3296,19 +3305,19 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -3319,19 +3328,19 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G92">
         <v>9</v>
@@ -3342,19 +3351,19 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3365,22 +3374,22 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,19 +3397,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -3411,19 +3420,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G96">
         <v>6</v>
@@ -3434,19 +3443,19 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -3457,19 +3466,19 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G98">
         <v>11</v>
@@ -3480,19 +3489,19 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G99">
         <v>15</v>
@@ -3503,19 +3512,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3526,19 +3535,19 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -3549,19 +3558,19 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G102">
         <v>9999</v>
@@ -3572,22 +3581,22 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>99</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3595,25 +3604,25 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" t="s">
         <v>159</v>
       </c>
-      <c r="C104" t="s">
-        <v>160</v>
-      </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3625,22 +3634,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G105">
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3652,22 +3661,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3679,22 +3688,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107">
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G107">
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3706,22 +3715,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G108">
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3733,22 +3742,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G109">
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3760,22 +3769,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G110">
         <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,22 +3796,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G111">
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3814,22 +3823,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G112">
         <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3841,22 +3850,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113">
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G113">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3868,22 +3877,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G114">
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3895,22 +3904,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G115">
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,22 +3931,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G116">
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3949,22 +3958,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G117">
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3976,22 +3985,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G118">
         <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4003,22 +4012,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G119">
         <v>16</v>
       </c>
       <c r="H119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4030,22 +4039,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G120">
         <v>17</v>
       </c>
       <c r="H120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,22 +4066,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121">
         <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G121">
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4084,22 +4093,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>19</v>
       </c>
       <c r="F122" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G122">
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4111,22 +4120,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123">
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G123">
         <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4138,22 +4147,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G124">
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4165,22 +4174,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125">
         <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G125">
         <v>50</v>
       </c>
       <c r="H125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4192,22 +4201,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126">
         <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G126">
         <v>51</v>
       </c>
       <c r="H126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4219,22 +4228,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>52</v>
       </c>
       <c r="F127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G127">
         <v>52</v>
       </c>
       <c r="H127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4246,22 +4255,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128">
         <v>53</v>
       </c>
       <c r="F128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G128">
         <v>53</v>
       </c>
       <c r="H128" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4273,22 +4282,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E129">
         <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G129">
         <v>54</v>
       </c>
       <c r="H129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4300,22 +4309,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130">
         <v>55</v>
       </c>
       <c r="F130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G130">
         <v>55</v>
       </c>
       <c r="H130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4327,22 +4336,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131">
         <v>56</v>
       </c>
       <c r="F131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G131">
         <v>56</v>
       </c>
       <c r="H131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4354,22 +4363,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
         <v>59</v>
       </c>
       <c r="F132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G132">
         <v>59</v>
       </c>
       <c r="H132" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4381,22 +4390,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133">
         <v>55</v>
       </c>
       <c r="F133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G133">
         <v>55</v>
       </c>
       <c r="H133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4408,22 +4417,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E134">
         <v>56</v>
       </c>
       <c r="F134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G134">
         <v>56</v>
       </c>
       <c r="H134" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4435,22 +4444,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>59</v>
       </c>
       <c r="F135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G135">
         <v>59</v>
       </c>
       <c r="H135" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4462,22 +4471,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E136">
         <v>60</v>
       </c>
       <c r="F136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G136">
         <v>60</v>
       </c>
       <c r="H136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4489,22 +4498,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>61</v>
       </c>
       <c r="F137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G137">
         <v>61</v>
       </c>
       <c r="H137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4516,22 +4525,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G138">
         <v>62</v>
       </c>
       <c r="H138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4543,22 +4552,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>63</v>
       </c>
       <c r="F139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G139">
         <v>63</v>
       </c>
       <c r="H139" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4570,22 +4579,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>64</v>
       </c>
       <c r="F140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G140">
         <v>64</v>
       </c>
       <c r="H140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,22 +4606,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>65</v>
       </c>
       <c r="F141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G141">
         <v>65</v>
       </c>
       <c r="H141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,22 +4633,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142">
         <v>66</v>
       </c>
       <c r="F142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G142">
         <v>66</v>
       </c>
       <c r="H142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4651,22 +4660,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E143">
         <v>67</v>
       </c>
       <c r="F143" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G143">
         <v>67</v>
       </c>
       <c r="H143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4678,22 +4687,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144">
         <v>68</v>
       </c>
       <c r="F144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G144">
         <v>68</v>
       </c>
       <c r="H144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4705,22 +4714,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145">
         <v>70</v>
       </c>
       <c r="F145" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G145">
         <v>70</v>
       </c>
       <c r="H145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4732,22 +4741,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146">
         <v>71</v>
       </c>
       <c r="F146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G146">
         <v>71</v>
       </c>
       <c r="H146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4759,22 +4768,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E147">
         <v>72</v>
       </c>
       <c r="F147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G147">
         <v>72</v>
       </c>
       <c r="H147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4786,22 +4795,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E148">
         <v>73</v>
       </c>
       <c r="F148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G148">
         <v>73</v>
       </c>
       <c r="H148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4813,22 +4822,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149">
         <v>74</v>
       </c>
       <c r="F149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G149">
         <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4840,22 +4849,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E150">
         <v>78</v>
       </c>
       <c r="F150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G150">
         <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4867,22 +4876,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E151">
         <v>80</v>
       </c>
       <c r="F151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G151">
         <v>80</v>
       </c>
       <c r="H151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4894,22 +4903,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C152" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E152">
         <v>81</v>
       </c>
       <c r="F152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G152">
         <v>81</v>
       </c>
       <c r="H152" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4921,22 +4930,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E153">
         <v>82</v>
       </c>
       <c r="F153" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G153">
         <v>82</v>
       </c>
       <c r="H153" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4948,22 +4957,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E154">
         <v>83</v>
       </c>
       <c r="F154" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G154">
         <v>83</v>
       </c>
       <c r="H154" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4975,22 +4984,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <v>84</v>
       </c>
       <c r="F155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G155">
         <v>84</v>
       </c>
       <c r="H155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5002,22 +5011,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E156">
         <v>85</v>
       </c>
       <c r="F156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G156">
         <v>85</v>
       </c>
       <c r="H156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5029,22 +5038,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157">
         <v>87</v>
       </c>
       <c r="F157" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G157">
         <v>87</v>
       </c>
       <c r="H157" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5056,22 +5065,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158">
         <v>88</v>
       </c>
       <c r="F158" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G158">
         <v>88</v>
       </c>
       <c r="H158" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5083,22 +5092,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159">
         <v>89</v>
       </c>
       <c r="F159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G159">
         <v>89</v>
       </c>
       <c r="H159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5110,22 +5119,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160">
         <v>90</v>
       </c>
       <c r="F160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G160">
         <v>90</v>
       </c>
       <c r="H160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5137,22 +5146,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161">
         <v>91</v>
       </c>
       <c r="F161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G161">
         <v>91</v>
       </c>
       <c r="H161" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5164,22 +5173,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E162">
         <v>92</v>
       </c>
       <c r="F162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G162">
         <v>92</v>
       </c>
       <c r="H162" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5191,22 +5200,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E163">
         <v>98</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G163">
         <v>98</v>
       </c>
       <c r="H163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5218,16 +5227,16 @@
         <v>p_crash2</v>
       </c>
       <c r="C164" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E164">
         <v>99</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G164">
         <v>99</v>
@@ -5238,19 +5247,19 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" t="s">
         <v>219</v>
       </c>
-      <c r="C165" t="s">
-        <v>220</v>
-      </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5261,19 +5270,19 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
+        <v>218</v>
+      </c>
+      <c r="C166" t="s">
         <v>219</v>
       </c>
-      <c r="C166" t="s">
-        <v>220</v>
-      </c>
       <c r="D166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -5284,19 +5293,19 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" t="s">
         <v>219</v>
       </c>
-      <c r="C167" t="s">
-        <v>220</v>
-      </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E167">
         <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G167">
         <v>9999</v>
@@ -5307,19 +5316,19 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
+        <v>218</v>
+      </c>
+      <c r="C168" t="s">
         <v>219</v>
       </c>
-      <c r="C168" t="s">
-        <v>220</v>
-      </c>
       <c r="D168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E168">
         <v>99</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G168">
         <v>99</v>
@@ -5330,19 +5339,19 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5353,19 +5362,19 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C170" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -5376,19 +5385,19 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C171" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E171">
         <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -5399,19 +5408,19 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E172">
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -5422,19 +5431,19 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E173">
         <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G173">
         <v>4</v>
@@ -5445,19 +5454,19 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E174">
         <v>5</v>
       </c>
       <c r="F174" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G174">
         <v>5</v>
@@ -5468,19 +5477,19 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E175">
         <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G175">
         <v>6</v>
@@ -5491,19 +5500,19 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C176" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E176">
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G176">
         <v>7</v>
@@ -5514,19 +5523,19 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C177" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E177">
         <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G177">
         <v>9</v>
@@ -5537,25 +5546,25 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C178" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E178">
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G178">
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5563,25 +5572,25 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C179" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5589,25 +5598,25 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
         <v>232</v>
       </c>
-      <c r="D180" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="G180">
+        <v>6</v>
+      </c>
+      <c r="H180" t="s">
         <v>233</v>
-      </c>
-      <c r="G180">
-        <v>6</v>
-      </c>
-      <c r="H180" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5615,25 +5624,25 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E181">
         <v>50</v>
       </c>
       <c r="F181" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G181">
         <v>50</v>
       </c>
       <c r="H181" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5641,25 +5650,25 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182">
         <v>51</v>
       </c>
       <c r="F182" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G182">
         <v>51</v>
       </c>
       <c r="H182" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5667,25 +5676,25 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C183" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E183">
         <v>98</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G183">
         <v>9999</v>
       </c>
       <c r="H183" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5693,45 +5702,45 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C184" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E184">
         <v>99</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G184">
         <v>99</v>
       </c>
       <c r="H184" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>238</v>
+      </c>
+      <c r="B185" t="s">
         <v>239</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>240</v>
       </c>
-      <c r="C185" t="s">
-        <v>241</v>
-      </c>
       <c r="D185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -5739,22 +5748,22 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>238</v>
+      </c>
+      <c r="B186" t="s">
         <v>239</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>240</v>
       </c>
-      <c r="C186" t="s">
-        <v>241</v>
-      </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E186">
         <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -5762,22 +5771,22 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B187" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E187">
         <v>99</v>
       </c>
       <c r="F187" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G187">
         <v>99</v>
@@ -5785,22 +5794,22 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B188" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C188" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -5808,22 +5817,22 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E189">
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -5831,22 +5840,22 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190">
         <v>3</v>
       </c>
       <c r="F190" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -5854,22 +5863,22 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B191" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C191" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E191">
         <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G191">
         <v>4</v>
@@ -5877,22 +5886,22 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B192" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E192">
         <v>5</v>
       </c>
       <c r="F192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G192">
         <v>5</v>
@@ -5900,22 +5909,22 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E193">
         <v>6</v>
       </c>
       <c r="F193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -5923,22 +5932,22 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E194">
         <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G194">
         <v>7</v>
@@ -5946,22 +5955,22 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C195" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -5969,22 +5978,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B196" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E196">
         <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -5992,22 +6001,22 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B197" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C197" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E197">
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -6015,22 +6024,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B198" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C198" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E198">
         <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -6038,22 +6047,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B199" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E199">
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G199">
         <v>5</v>
@@ -6061,22 +6070,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B200" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E200">
         <v>6</v>
       </c>
       <c r="F200" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G200">
         <v>6</v>
@@ -6084,22 +6093,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C201" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E201">
         <v>7</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G201">
         <v>7</v>
@@ -6107,22 +6116,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C202" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E202">
         <v>99</v>
       </c>
       <c r="F202" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G202">
         <v>99</v>
@@ -6130,22 +6139,22 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B203" t="s">
+        <v>251</v>
+      </c>
+      <c r="C203" t="s">
         <v>252</v>
       </c>
-      <c r="C203" t="s">
-        <v>253</v>
-      </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -6153,22 +6162,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B204" t="s">
+        <v>251</v>
+      </c>
+      <c r="C204" t="s">
         <v>252</v>
       </c>
-      <c r="C204" t="s">
-        <v>253</v>
-      </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E204">
         <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -6176,22 +6185,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B205" t="s">
+        <v>251</v>
+      </c>
+      <c r="C205" t="s">
         <v>252</v>
       </c>
-      <c r="C205" t="s">
-        <v>253</v>
-      </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E205">
         <v>3</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -6199,22 +6208,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B206" t="s">
+        <v>251</v>
+      </c>
+      <c r="C206" t="s">
         <v>252</v>
       </c>
-      <c r="C206" t="s">
-        <v>253</v>
-      </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E206">
         <v>4</v>
       </c>
       <c r="F206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G206">
         <v>4</v>
@@ -6225,22 +6234,22 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
+        <v>266</v>
+      </c>
+      <c r="C207" t="s">
         <v>267</v>
       </c>
-      <c r="C207" t="s">
-        <v>268</v>
-      </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6248,22 +6257,22 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
+        <v>266</v>
+      </c>
+      <c r="C208" t="s">
         <v>267</v>
       </c>
-      <c r="C208" t="s">
-        <v>268</v>
-      </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E208">
         <v>2</v>
       </c>
       <c r="F208" t="s">
+        <v>269</v>
+      </c>
+      <c r="G208" t="s">
         <v>270</v>
-      </c>
-      <c r="G208" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6271,22 +6280,22 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
+        <v>266</v>
+      </c>
+      <c r="C209" t="s">
         <v>267</v>
       </c>
-      <c r="C209" t="s">
-        <v>268</v>
-      </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E209">
         <v>3</v>
       </c>
       <c r="F209" t="s">
+        <v>272</v>
+      </c>
+      <c r="G209" t="s">
         <v>273</v>
-      </c>
-      <c r="G209" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6294,22 +6303,22 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
+        <v>266</v>
+      </c>
+      <c r="C210" t="s">
         <v>267</v>
       </c>
-      <c r="C210" t="s">
-        <v>268</v>
-      </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E210">
         <v>4</v>
       </c>
       <c r="F210" t="s">
+        <v>274</v>
+      </c>
+      <c r="G210" t="s">
         <v>275</v>
-      </c>
-      <c r="G210" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6317,22 +6326,22 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
+        <v>266</v>
+      </c>
+      <c r="C211" t="s">
         <v>267</v>
       </c>
-      <c r="C211" t="s">
-        <v>268</v>
-      </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E211">
         <v>5</v>
       </c>
       <c r="F211" t="s">
+        <v>276</v>
+      </c>
+      <c r="G211" t="s">
         <v>277</v>
-      </c>
-      <c r="G211" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6340,22 +6349,22 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" t="s">
         <v>267</v>
       </c>
-      <c r="C212" t="s">
-        <v>268</v>
-      </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E212">
         <v>6</v>
       </c>
       <c r="F212" t="s">
+        <v>278</v>
+      </c>
+      <c r="G212" t="s">
         <v>279</v>
-      </c>
-      <c r="G212" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6363,19 +6372,19 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
+        <v>266</v>
+      </c>
+      <c r="C213" t="s">
         <v>267</v>
       </c>
-      <c r="C213" t="s">
-        <v>268</v>
-      </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E213">
         <v>7</v>
       </c>
       <c r="F213" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G213">
         <v>850</v>
@@ -6386,22 +6395,22 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
+        <v>266</v>
+      </c>
+      <c r="C214" t="s">
         <v>267</v>
       </c>
-      <c r="C214" t="s">
-        <v>268</v>
-      </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E214">
         <v>8</v>
       </c>
       <c r="F214" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G214" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6409,22 +6418,22 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
+        <v>266</v>
+      </c>
+      <c r="C215" t="s">
         <v>267</v>
       </c>
-      <c r="C215" t="s">
-        <v>268</v>
-      </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E215">
         <v>9</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6432,19 +6441,19 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
+        <v>266</v>
+      </c>
+      <c r="C216" t="s">
         <v>267</v>
       </c>
-      <c r="C216" t="s">
-        <v>268</v>
-      </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E216">
         <v>998</v>
       </c>
       <c r="F216" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G216">
         <v>998</v>
@@ -6455,19 +6464,19 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
+        <v>266</v>
+      </c>
+      <c r="C217" t="s">
         <v>267</v>
       </c>
-      <c r="C217" t="s">
-        <v>268</v>
-      </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E217">
         <v>999</v>
       </c>
       <c r="F217" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G217" s="2">
         <v>997998</v>
@@ -6513,10 +6522,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6524,10 +6533,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6535,10 +6544,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6546,10 +6555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/kc/kc_data_dict.xlsx
+++ b/kc/kc_data_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Classes\W210 - Capstone\NYCTrafficCollisions\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C849B-9F9B-4332-BA05-3A7F3122F7AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E45D8C-5608-408D-AFBD-5FFD42A6C33B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="287">
   <si>
     <t>Variable</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Vehicle Traveling Speed</t>
   </si>
   <si>
-    <t>&gt;151mph</t>
-  </si>
-  <si>
     <t>underride</t>
   </si>
   <si>
@@ -800,9 +797,6 @@
     <t>6, 10, 11, 12, 15</t>
   </si>
   <si>
-    <t>9999 = all else</t>
-  </si>
-  <si>
     <t>998,999</t>
   </si>
   <si>
@@ -891,14 +885,25 @@
   </si>
   <si>
     <t>Numeric</t>
+  </si>
+  <si>
+    <t>9999 = all else (this should always be the LAST category)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -926,13 +931,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FB29DA-B7F0-47F0-877E-10B77E041BFB}">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1265,8 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="7" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1287,8 +1294,8 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>257</v>
+      <c r="I1" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,11 +1311,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>285</v>
-      </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>283</v>
+      </c>
+      <c r="I2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1327,11 +1334,11 @@
       <c r="E3">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="G3">
-        <v>9999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1420,10 +1427,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1446,7 +1453,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1579,7 +1586,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1625,7 +1632,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,7 +1655,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,7 +1724,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1740,7 +1747,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,7 +1770,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,7 +1793,7 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,13 +1833,13 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <v>9999</v>
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,13 +1856,13 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <v>9999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,13 +1870,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,7 +1959,7 @@
         <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1971,14 +1978,14 @@
       <c r="E32">
         <v>152</v>
       </c>
-      <c r="F32" t="s">
-        <v>60</v>
+      <c r="F32">
+        <v>152</v>
       </c>
       <c r="G32">
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1994,22 +2001,22 @@
       <c r="E33">
         <v>999</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -2024,15 +2031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2044,18 +2051,18 @@
         <v>17</v>
       </c>
       <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -2070,15 +2077,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2087,90 +2094,90 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
         <v>66</v>
       </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>69</v>
       </c>
       <c r="G38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39">
         <v>9999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="G39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
       <c r="G40">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
         <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -2179,21 +2186,21 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -2202,21 +2209,21 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
         <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -2225,21 +2232,21 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G43">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -2248,21 +2255,21 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
         <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -2271,21 +2278,21 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
         <v>77</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -2294,21 +2301,21 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
         <v>77</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -2317,21 +2324,21 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
         <v>77</v>
-      </c>
-      <c r="C48" t="s">
-        <v>78</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2340,7 +2347,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>42</v>
@@ -2351,22 +2358,22 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
         <v>77</v>
       </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G49">
-        <v>9999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,22 +2381,22 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
         <v>77</v>
       </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G50">
-        <v>99</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2397,10 +2404,10 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
         <v>85</v>
-      </c>
-      <c r="C51" t="s">
-        <v>86</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2409,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2420,10 +2427,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
         <v>85</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2432,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2443,10 +2450,10 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2455,10 +2462,10 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s">
         <v>90</v>
-      </c>
-      <c r="G53" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2466,10 +2473,10 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
         <v>85</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2478,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -2489,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s">
         <v>85</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2501,7 +2508,7 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -2512,11 +2519,11 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
         <v>85</v>
       </c>
-      <c r="C56" t="s">
-        <v>86</v>
-      </c>
       <c r="D56" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2535,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
         <v>85</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2550,7 +2557,7 @@
         <v>47</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,16 +2565,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2575,10 +2582,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -2586,11 +2593,11 @@
       <c r="E59">
         <v>99</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s">
         <v>47</v>
-      </c>
-      <c r="G59" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,16 +2605,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
         <v>98</v>
-      </c>
-      <c r="C60" t="s">
-        <v>99</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,10 +2622,10 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
         <v>98</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -2626,11 +2633,11 @@
       <c r="E61">
         <v>99</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="s">
         <v>47</v>
-      </c>
-      <c r="G61" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,10 +2645,10 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
@@ -2650,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2661,10 +2668,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -2673,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2684,10 +2691,10 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -2696,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" t="s">
         <v>105</v>
-      </c>
-      <c r="G64" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2707,10 +2714,10 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -2722,7 +2729,7 @@
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2730,10 +2737,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
         <v>107</v>
-      </c>
-      <c r="C66" t="s">
-        <v>108</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -2742,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2753,10 +2760,10 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
         <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>108</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -2765,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2776,22 +2783,22 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
         <v>107</v>
       </c>
-      <c r="C68" t="s">
-        <v>108</v>
-      </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
-      </c>
-      <c r="G68">
-        <v>9999</v>
+        <v>47</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,22 +2806,22 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
         <v>107</v>
       </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" t="s">
-        <v>94</v>
+        <v>109</v>
+      </c>
+      <c r="G69">
+        <v>9999</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,10 +2829,10 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
         <v>113</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -2834,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2845,10 +2852,10 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
         <v>113</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
@@ -2857,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2868,10 +2875,10 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" t="s">
         <v>113</v>
-      </c>
-      <c r="C72" t="s">
-        <v>114</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
@@ -2880,10 +2887,10 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" t="s">
         <v>113</v>
-      </c>
-      <c r="C73" t="s">
-        <v>114</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -2903,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" t="s">
         <v>116</v>
-      </c>
-      <c r="G73" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2914,10 +2921,10 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
         <v>113</v>
-      </c>
-      <c r="C74" t="s">
-        <v>114</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
@@ -2926,10 +2933,10 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,10 +2944,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
         <v>113</v>
-      </c>
-      <c r="C75" t="s">
-        <v>114</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
@@ -2949,10 +2956,10 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" t="s">
         <v>121</v>
-      </c>
-      <c r="G75" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2960,10 +2967,10 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
         <v>113</v>
-      </c>
-      <c r="C76" t="s">
-        <v>114</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -2975,7 +2982,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,10 +2990,10 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -2995,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3006,10 +3013,10 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -3018,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,10 +3036,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -3041,7 +3048,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G79">
         <v>20</v>
@@ -3052,10 +3059,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
@@ -3064,10 +3071,10 @@
         <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,10 +3082,10 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
@@ -3087,7 +3094,7 @@
         <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G81">
         <v>40</v>
@@ -3098,22 +3105,22 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G82" t="s">
         <v>131</v>
-      </c>
-      <c r="G82">
-        <v>9999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3121,22 +3128,22 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="G83">
+        <v>9999</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,10 +3151,10 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -3156,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3167,10 +3174,10 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
@@ -3179,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -3190,10 +3197,10 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
@@ -3202,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G86" t="s">
         <v>136</v>
-      </c>
-      <c r="G86" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,10 +3220,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
@@ -3228,7 +3235,7 @@
         <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3236,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -3248,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3259,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
@@ -3271,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3282,10 +3289,10 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
@@ -3294,10 +3301,10 @@
         <v>2</v>
       </c>
       <c r="F90" t="s">
+        <v>142</v>
+      </c>
+      <c r="G90" t="s">
         <v>143</v>
-      </c>
-      <c r="G90" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,10 +3312,10 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
@@ -3317,7 +3324,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -3328,10 +3335,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
@@ -3340,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G92">
         <v>9</v>
@@ -3351,10 +3358,10 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
@@ -3363,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3374,10 +3381,10 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -3386,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3397,10 +3404,10 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
@@ -3409,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -3420,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
@@ -3432,7 +3439,7 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G96">
         <v>6</v>
@@ -3443,10 +3450,10 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
@@ -3455,7 +3462,7 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -3466,10 +3473,10 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
@@ -3478,7 +3485,7 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G98">
         <v>11</v>
@@ -3489,10 +3496,10 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
@@ -3501,7 +3508,7 @@
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G99">
         <v>15</v>
@@ -3512,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
@@ -3524,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3535,10 +3542,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
@@ -3547,7 +3554,7 @@
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -3558,22 +3565,22 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
-      </c>
-      <c r="G102">
-        <v>9999</v>
+        <v>47</v>
+      </c>
+      <c r="G102" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,22 +3588,22 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
-      </c>
-      <c r="G103" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="G103">
+        <v>9999</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3604,10 +3611,10 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" t="s">
         <v>158</v>
-      </c>
-      <c r="C104" t="s">
-        <v>159</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -3616,13 +3623,13 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3634,7 +3641,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -3643,13 +3650,13 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G105">
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3661,7 +3668,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -3670,13 +3677,13 @@
         <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,7 +3695,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
@@ -3697,13 +3704,13 @@
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G107">
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,7 +3722,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
@@ -3724,13 +3731,13 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G108">
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3742,7 +3749,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -3751,13 +3758,13 @@
         <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G109">
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3769,7 +3776,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
@@ -3778,13 +3785,13 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G110">
         <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3796,7 +3803,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
@@ -3805,13 +3812,13 @@
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G111">
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,7 +3830,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
@@ -3832,13 +3839,13 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G112">
         <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3850,7 +3857,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -3859,13 +3866,13 @@
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G113">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3877,7 +3884,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
@@ -3886,13 +3893,13 @@
         <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G114">
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3904,7 +3911,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -3913,13 +3920,13 @@
         <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G115">
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3931,7 +3938,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
@@ -3940,13 +3947,13 @@
         <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G116">
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3958,7 +3965,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
@@ -3967,13 +3974,13 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G117">
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3985,7 +3992,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -3994,13 +4001,13 @@
         <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G118">
         <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4012,7 +4019,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
@@ -4021,13 +4028,13 @@
         <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G119">
         <v>16</v>
       </c>
       <c r="H119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4039,7 +4046,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
@@ -4048,13 +4055,13 @@
         <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G120">
         <v>17</v>
       </c>
       <c r="H120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4066,7 +4073,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
@@ -4075,13 +4082,13 @@
         <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G121">
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4093,7 +4100,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -4102,13 +4109,13 @@
         <v>19</v>
       </c>
       <c r="F122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G122">
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4120,7 +4127,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -4129,13 +4136,13 @@
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G123">
         <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4147,7 +4154,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
@@ -4156,13 +4163,13 @@
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G124">
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4174,7 +4181,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
@@ -4183,13 +4190,13 @@
         <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G125">
         <v>50</v>
       </c>
       <c r="H125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,7 +4208,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
@@ -4210,13 +4217,13 @@
         <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G126">
         <v>51</v>
       </c>
       <c r="H126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4228,7 +4235,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -4237,13 +4244,13 @@
         <v>52</v>
       </c>
       <c r="F127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G127">
         <v>52</v>
       </c>
       <c r="H127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4255,7 +4262,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
@@ -4264,13 +4271,13 @@
         <v>53</v>
       </c>
       <c r="F128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G128">
         <v>53</v>
       </c>
       <c r="H128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4282,7 +4289,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
@@ -4291,13 +4298,13 @@
         <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G129">
         <v>54</v>
       </c>
       <c r="H129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4309,7 +4316,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
@@ -4318,13 +4325,13 @@
         <v>55</v>
       </c>
       <c r="F130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G130">
         <v>55</v>
       </c>
       <c r="H130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4336,7 +4343,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
@@ -4345,13 +4352,13 @@
         <v>56</v>
       </c>
       <c r="F131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G131">
         <v>56</v>
       </c>
       <c r="H131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,7 +4370,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
@@ -4372,13 +4379,13 @@
         <v>59</v>
       </c>
       <c r="F132" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G132">
         <v>59</v>
       </c>
       <c r="H132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4390,7 +4397,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
@@ -4399,13 +4406,13 @@
         <v>55</v>
       </c>
       <c r="F133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G133">
         <v>55</v>
       </c>
       <c r="H133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,7 +4424,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
@@ -4426,13 +4433,13 @@
         <v>56</v>
       </c>
       <c r="F134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G134">
         <v>56</v>
       </c>
       <c r="H134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4444,7 +4451,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
@@ -4453,13 +4460,13 @@
         <v>59</v>
       </c>
       <c r="F135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G135">
         <v>59</v>
       </c>
       <c r="H135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4471,7 +4478,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
@@ -4480,13 +4487,13 @@
         <v>60</v>
       </c>
       <c r="F136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G136">
         <v>60</v>
       </c>
       <c r="H136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4498,7 +4505,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
@@ -4507,13 +4514,13 @@
         <v>61</v>
       </c>
       <c r="F137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G137">
         <v>61</v>
       </c>
       <c r="H137" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,7 +4532,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
@@ -4534,13 +4541,13 @@
         <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G138">
         <v>62</v>
       </c>
       <c r="H138" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4552,7 +4559,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
@@ -4561,13 +4568,13 @@
         <v>63</v>
       </c>
       <c r="F139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G139">
         <v>63</v>
       </c>
       <c r="H139" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4579,7 +4586,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
@@ -4588,13 +4595,13 @@
         <v>64</v>
       </c>
       <c r="F140" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G140">
         <v>64</v>
       </c>
       <c r="H140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4606,7 +4613,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
@@ -4615,13 +4622,13 @@
         <v>65</v>
       </c>
       <c r="F141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G141">
         <v>65</v>
       </c>
       <c r="H141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4633,7 +4640,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
@@ -4642,13 +4649,13 @@
         <v>66</v>
       </c>
       <c r="F142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G142">
         <v>66</v>
       </c>
       <c r="H142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4660,7 +4667,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
@@ -4669,13 +4676,13 @@
         <v>67</v>
       </c>
       <c r="F143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G143">
         <v>67</v>
       </c>
       <c r="H143" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4687,7 +4694,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
@@ -4696,13 +4703,13 @@
         <v>68</v>
       </c>
       <c r="F144" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G144">
         <v>68</v>
       </c>
       <c r="H144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4714,7 +4721,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
@@ -4723,13 +4730,13 @@
         <v>70</v>
       </c>
       <c r="F145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G145">
         <v>70</v>
       </c>
       <c r="H145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4741,7 +4748,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
@@ -4750,13 +4757,13 @@
         <v>71</v>
       </c>
       <c r="F146" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G146">
         <v>71</v>
       </c>
       <c r="H146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4768,7 +4775,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
@@ -4777,13 +4784,13 @@
         <v>72</v>
       </c>
       <c r="F147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G147">
         <v>72</v>
       </c>
       <c r="H147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,7 +4802,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
@@ -4804,13 +4811,13 @@
         <v>73</v>
       </c>
       <c r="F148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G148">
         <v>73</v>
       </c>
       <c r="H148" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,7 +4829,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -4831,13 +4838,13 @@
         <v>74</v>
       </c>
       <c r="F149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G149">
         <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4849,7 +4856,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
@@ -4858,13 +4865,13 @@
         <v>78</v>
       </c>
       <c r="F150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G150">
         <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4876,7 +4883,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
@@ -4885,13 +4892,13 @@
         <v>80</v>
       </c>
       <c r="F151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G151">
         <v>80</v>
       </c>
       <c r="H151" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4903,7 +4910,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
@@ -4912,13 +4919,13 @@
         <v>81</v>
       </c>
       <c r="F152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G152">
         <v>81</v>
       </c>
       <c r="H152" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4930,7 +4937,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
@@ -4939,13 +4946,13 @@
         <v>82</v>
       </c>
       <c r="F153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G153">
         <v>82</v>
       </c>
       <c r="H153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,7 +4964,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
@@ -4966,13 +4973,13 @@
         <v>83</v>
       </c>
       <c r="F154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G154">
         <v>83</v>
       </c>
       <c r="H154" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4984,7 +4991,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
@@ -4993,13 +5000,13 @@
         <v>84</v>
       </c>
       <c r="F155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G155">
         <v>84</v>
       </c>
       <c r="H155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5011,7 +5018,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -5020,13 +5027,13 @@
         <v>85</v>
       </c>
       <c r="F156" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G156">
         <v>85</v>
       </c>
       <c r="H156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5038,7 +5045,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
@@ -5047,13 +5054,13 @@
         <v>87</v>
       </c>
       <c r="F157" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G157">
         <v>87</v>
       </c>
       <c r="H157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5065,7 +5072,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
@@ -5074,13 +5081,13 @@
         <v>88</v>
       </c>
       <c r="F158" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G158">
         <v>88</v>
       </c>
       <c r="H158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5092,7 +5099,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
@@ -5101,13 +5108,13 @@
         <v>89</v>
       </c>
       <c r="F159" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G159">
         <v>89</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5119,7 +5126,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
@@ -5128,13 +5135,13 @@
         <v>90</v>
       </c>
       <c r="F160" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G160">
         <v>90</v>
       </c>
       <c r="H160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5146,7 +5153,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -5155,13 +5162,13 @@
         <v>91</v>
       </c>
       <c r="F161" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G161">
         <v>91</v>
       </c>
       <c r="H161" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5173,7 +5180,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
@@ -5182,13 +5189,13 @@
         <v>92</v>
       </c>
       <c r="F162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G162">
         <v>92</v>
       </c>
       <c r="H162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5200,7 +5207,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
@@ -5227,7 +5234,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
@@ -5247,10 +5254,10 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
+        <v>217</v>
+      </c>
+      <c r="C165" t="s">
         <v>218</v>
-      </c>
-      <c r="C165" t="s">
-        <v>219</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
@@ -5259,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -5270,10 +5277,10 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" t="s">
         <v>218</v>
-      </c>
-      <c r="C166" t="s">
-        <v>219</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
@@ -5282,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -5293,22 +5300,22 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" t="s">
         <v>218</v>
       </c>
-      <c r="C167" t="s">
-        <v>219</v>
-      </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="F167" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="G167">
-        <v>9999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5316,22 +5323,22 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
+        <v>217</v>
+      </c>
+      <c r="C168" t="s">
         <v>218</v>
       </c>
-      <c r="C168" t="s">
-        <v>219</v>
-      </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="G168">
-        <v>99</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5339,10 +5346,10 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
@@ -5351,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5362,10 +5369,10 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C170" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
@@ -5374,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -5385,10 +5392,10 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C171" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
@@ -5397,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -5408,10 +5415,10 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
@@ -5420,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -5431,10 +5438,10 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C173" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
@@ -5443,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G173">
         <v>4</v>
@@ -5454,10 +5461,10 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C174" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
@@ -5466,7 +5473,7 @@
         <v>5</v>
       </c>
       <c r="F174" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G174">
         <v>5</v>
@@ -5477,10 +5484,10 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C175" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
@@ -5489,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G175">
         <v>6</v>
@@ -5500,10 +5507,10 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C176" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
@@ -5512,7 +5519,7 @@
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G176">
         <v>7</v>
@@ -5523,10 +5530,10 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C177" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
@@ -5546,10 +5553,10 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C178" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
@@ -5558,13 +5565,13 @@
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G178">
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5572,10 +5579,10 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C179" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
@@ -5584,13 +5591,13 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5598,25 +5605,25 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C180" t="s">
+        <v>230</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
         <v>231</v>
       </c>
-      <c r="D180" t="s">
-        <v>15</v>
-      </c>
-      <c r="E180">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="G180">
+        <v>6</v>
+      </c>
+      <c r="H180" t="s">
         <v>232</v>
-      </c>
-      <c r="G180">
-        <v>6</v>
-      </c>
-      <c r="H180" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5624,10 +5631,10 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C181" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
@@ -5636,13 +5643,13 @@
         <v>50</v>
       </c>
       <c r="F181" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G181">
         <v>50</v>
       </c>
       <c r="H181" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5650,10 +5657,10 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C182" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
@@ -5662,13 +5669,13 @@
         <v>51</v>
       </c>
       <c r="F182" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G182">
         <v>51</v>
       </c>
       <c r="H182" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,25 +5683,25 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C183" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G183">
-        <v>9999</v>
+        <v>99</v>
       </c>
       <c r="H183" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5702,36 +5709,36 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C184" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
       </c>
       <c r="E184">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G184">
-        <v>99</v>
+        <v>9999</v>
       </c>
       <c r="H184" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>237</v>
+      </c>
+      <c r="B185" t="s">
         <v>238</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>239</v>
-      </c>
-      <c r="C185" t="s">
-        <v>240</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
@@ -5740,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -5748,13 +5755,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>237</v>
+      </c>
+      <c r="B186" t="s">
         <v>238</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>239</v>
-      </c>
-      <c r="C186" t="s">
-        <v>240</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
@@ -5771,13 +5778,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B187" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -5786,7 +5793,7 @@
         <v>99</v>
       </c>
       <c r="F187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G187">
         <v>99</v>
@@ -5794,13 +5801,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B188" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C188" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
@@ -5809,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -5817,13 +5824,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B189" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
@@ -5832,7 +5839,7 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -5840,13 +5847,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C190" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
@@ -5855,7 +5862,7 @@
         <v>3</v>
       </c>
       <c r="F190" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G190">
         <v>3</v>
@@ -5863,13 +5870,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B191" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
@@ -5878,7 +5885,7 @@
         <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G191">
         <v>4</v>
@@ -5886,13 +5893,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C192" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
@@ -5901,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="F192" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G192">
         <v>5</v>
@@ -5909,13 +5916,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
@@ -5924,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="F193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -5932,13 +5939,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B194" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
@@ -5955,13 +5962,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B195" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
@@ -5970,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -5978,13 +5985,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B196" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
@@ -5993,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -6001,13 +6008,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B197" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C197" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -6016,7 +6023,7 @@
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -6024,13 +6031,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B198" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C198" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
@@ -6039,7 +6046,7 @@
         <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -6047,13 +6054,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B199" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C199" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
@@ -6062,7 +6069,7 @@
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G199">
         <v>5</v>
@@ -6070,13 +6077,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C200" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
@@ -6085,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="F200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G200">
         <v>6</v>
@@ -6093,13 +6100,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B201" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C201" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -6116,13 +6123,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B202" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C202" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
@@ -6131,7 +6138,7 @@
         <v>99</v>
       </c>
       <c r="F202" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G202">
         <v>99</v>
@@ -6139,13 +6146,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B203" t="s">
+        <v>250</v>
+      </c>
+      <c r="C203" t="s">
         <v>251</v>
-      </c>
-      <c r="C203" t="s">
-        <v>252</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
@@ -6154,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -6162,13 +6169,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
+        <v>250</v>
+      </c>
+      <c r="C204" t="s">
         <v>251</v>
-      </c>
-      <c r="C204" t="s">
-        <v>252</v>
       </c>
       <c r="D204" t="s">
         <v>15</v>
@@ -6177,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="F204" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -6185,13 +6192,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B205" t="s">
+        <v>250</v>
+      </c>
+      <c r="C205" t="s">
         <v>251</v>
-      </c>
-      <c r="C205" t="s">
-        <v>252</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
@@ -6208,13 +6215,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B206" t="s">
+        <v>250</v>
+      </c>
+      <c r="C206" t="s">
         <v>251</v>
-      </c>
-      <c r="C206" t="s">
-        <v>252</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
@@ -6234,10 +6241,10 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C207" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
@@ -6246,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6257,10 +6264,10 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C208" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
@@ -6269,10 +6276,10 @@
         <v>2</v>
       </c>
       <c r="F208" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G208" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6280,10 +6287,10 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C209" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D209" t="s">
         <v>15</v>
@@ -6292,10 +6299,10 @@
         <v>3</v>
       </c>
       <c r="F209" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G209" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6303,10 +6310,10 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C210" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
@@ -6315,10 +6322,10 @@
         <v>4</v>
       </c>
       <c r="F210" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G210" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6326,10 +6333,10 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C211" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
@@ -6338,10 +6345,10 @@
         <v>5</v>
       </c>
       <c r="F211" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G211" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6349,10 +6356,10 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C212" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D212" t="s">
         <v>15</v>
@@ -6361,10 +6368,10 @@
         <v>6</v>
       </c>
       <c r="F212" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G212" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6372,10 +6379,10 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C213" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
@@ -6384,7 +6391,7 @@
         <v>7</v>
       </c>
       <c r="F213" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G213">
         <v>850</v>
@@ -6395,10 +6402,10 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C214" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D214" t="s">
         <v>15</v>
@@ -6407,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="F214" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G214" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6418,10 +6425,10 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C215" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D215" t="s">
         <v>15</v>
@@ -6433,7 +6440,7 @@
         <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6441,10 +6448,10 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C216" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
@@ -6453,7 +6460,7 @@
         <v>998</v>
       </c>
       <c r="F216" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G216">
         <v>998</v>
@@ -6464,10 +6471,10 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C217" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D217" t="s">
         <v>15</v>
@@ -6476,7 +6483,7 @@
         <v>999</v>
       </c>
       <c r="F217" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G217" s="2">
         <v>997998</v>
@@ -6493,7 +6500,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6544,10 +6551,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,10 +6562,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/kc/kc_data_dict.xlsx
+++ b/kc/kc_data_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Classes\W210 - Capstone\NYCTrafficCollisions\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E45D8C-5608-408D-AFBD-5FFD42A6C33B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA552BC-0613-4582-84A2-E735D8856F37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="293">
   <si>
     <t>Variable</t>
   </si>
@@ -359,9 +359,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>vpavetype</t>
-  </si>
-  <si>
     <t>mostly asphalt or unreported or concrete</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>Oil &amp; Other</t>
   </si>
   <si>
-    <t>7,8</t>
-  </si>
-  <si>
     <t>Sand, Mud, Dirt, Gravel</t>
   </si>
   <si>
@@ -866,9 +860,6 @@
     <t>Motor Homes</t>
   </si>
   <si>
-    <t>870:898</t>
-  </si>
-  <si>
     <t>901:989</t>
   </si>
   <si>
@@ -887,7 +878,34 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>9999 = all else (this should always be the LAST category)</t>
+    <t>997,998</t>
+  </si>
+  <si>
+    <t>9999 , n= all else (this should always be the LAST category), the 2nd numer should be max of the category</t>
+  </si>
+  <si>
+    <t>9999,99</t>
+  </si>
+  <si>
+    <t>9999,10</t>
+  </si>
+  <si>
+    <t>9999,100</t>
+  </si>
+  <si>
+    <t>vpavetyp</t>
+  </si>
+  <si>
+    <t>9999,1000</t>
+  </si>
+  <si>
+    <t>No Rollover</t>
+  </si>
+  <si>
+    <t>9999,8</t>
+  </si>
+  <si>
+    <t>9999,5</t>
   </si>
 </sst>
 </file>
@@ -931,10 +949,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1253,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FB29DA-B7F0-47F0-877E-10B77E041BFB}">
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1294,8 +1311,8 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>286</v>
+      <c r="I1" s="5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1312,10 +1329,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1334,6 +1351,9 @@
       <c r="E3">
         <v>99</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <v>99</v>
       </c>
@@ -1418,19 +1438,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
       <c r="F7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" t="s">
-        <v>257</v>
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1438,22 +1461,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>136</v>
+        <v>234</v>
+      </c>
+      <c r="H8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1470,13 +1490,13 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1493,13 +1513,13 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1516,13 +1536,13 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,13 +1559,13 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1562,13 +1582,13 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G13">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1576,17 +1596,22 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="H14" t="s">
-        <v>235</v>
+      <c r="E14">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1594,22 +1619,22 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1617,22 +1642,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="H16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,13 +1669,13 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>233</v>
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1672,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1695,13 +1715,13 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1718,13 +1738,13 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>258</v>
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1741,13 +1761,13 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>259</v>
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1764,13 +1784,13 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>254</v>
+        <v>44</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,13 +1807,13 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>255</v>
+        <v>46</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,13 +1830,13 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1833,13 +1853,13 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,13 +1876,13 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26">
-        <v>9999</v>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1870,13 +1890,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1884,22 +1913,22 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1907,22 +1936,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,13 +1959,13 @@
         <v>52</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1953,13 +1973,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1967,22 +1996,22 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>152</v>
-      </c>
-      <c r="F32">
-        <v>152</v>
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
       </c>
       <c r="G32">
-        <v>997</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1990,22 +2019,22 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E33">
-        <v>999</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2013,22 +2042,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,22 +2056,22 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>64</v>
+        <v>152</v>
+      </c>
+      <c r="F35">
+        <v>152</v>
+      </c>
+      <c r="G35">
+        <v>997</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2059,22 +2079,25 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36">
+        <v>999</v>
+      </c>
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
+      <c r="G36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2082,22 +2105,22 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,22 +2128,22 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2128,10 +2151,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -2140,10 +2163,10 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39">
-        <v>9999</v>
+        <v>48</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2151,22 +2174,22 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2174,22 +2197,22 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2197,22 +2220,22 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,22 +2243,22 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,13 +2275,13 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2266,22 +2289,22 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,22 +2312,22 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2312,22 +2335,22 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2335,22 +2358,22 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G48">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,22 +2381,22 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2390,13 +2413,13 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G50">
-        <v>9999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2404,22 +2427,22 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2427,10 +2450,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2439,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2450,22 +2473,22 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="G53">
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,22 +2496,22 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2496,22 +2519,22 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2528,13 +2551,13 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2551,13 +2574,13 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2565,16 +2588,22 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,22 +2611,22 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>99</v>
-      </c>
-      <c r="G59" t="s">
-        <v>93</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2605,16 +2634,22 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" t="s">
-        <v>99</v>
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2622,22 +2657,22 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>99</v>
-      </c>
-      <c r="G61" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2645,22 +2680,22 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G62" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,22 +2703,22 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2691,309 +2726,303 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>104</v>
-      </c>
-      <c r="G64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
       </c>
       <c r="G65" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>99</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
         <v>106</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C73" t="s">
         <v>107</v>
       </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66">
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73">
         <v>0</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F73" t="s">
         <v>102</v>
       </c>
-      <c r="G66">
+      <c r="G73">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
         <v>106</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C74" t="s">
         <v>107</v>
       </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67">
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74">
         <v>1</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F74" t="s">
         <v>108</v>
       </c>
-      <c r="G67">
+      <c r="G74">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
         <v>106</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C75" t="s">
         <v>107</v>
       </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68">
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75">
         <v>9</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F75" t="s">
         <v>47</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G75" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
         <v>106</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C76" t="s">
         <v>107</v>
       </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69">
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76">
         <v>3</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F76" t="s">
         <v>109</v>
       </c>
-      <c r="G69">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="G76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" t="s">
         <v>112</v>
-      </c>
-      <c r="C70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s">
-        <v>118</v>
-      </c>
-      <c r="G72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74">
-        <v>4</v>
-      </c>
-      <c r="F74" t="s">
-        <v>122</v>
-      </c>
-      <c r="G74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>120</v>
-      </c>
-      <c r="G75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76">
-        <v>99</v>
-      </c>
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
-      <c r="G76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" t="s">
-        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -3002,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -3025,56 +3054,56 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
-      </c>
-      <c r="G79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>261</v>
+        <v>114</v>
+      </c>
+      <c r="G80" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,22 +3111,22 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
-      </c>
-      <c r="G81">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="G81" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,22 +3134,22 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,22 +3157,22 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
-      </c>
-      <c r="G83">
-        <v>9999</v>
+        <v>47</v>
+      </c>
+      <c r="G83" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,10 +3180,10 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -3163,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3174,22 +3203,22 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3197,22 +3226,22 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>135</v>
-      </c>
-      <c r="G86" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="G86">
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,22 +3249,22 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
-        <v>93</v>
+        <v>126</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3243,22 +3272,22 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3266,22 +3295,22 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="G89" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,22 +3318,22 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G90" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3312,22 +3341,22 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,22 +3364,22 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,22 +3387,22 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>146</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3381,22 +3410,22 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>147</v>
-      </c>
-      <c r="G94" t="s">
-        <v>156</v>
+        <v>48</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3404,22 +3433,22 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
-      </c>
-      <c r="G95">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="G95" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3427,22 +3456,22 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3450,22 +3479,22 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3473,22 +3502,22 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98">
-        <v>11</v>
+        <v>140</v>
+      </c>
+      <c r="G98" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3496,22 +3525,22 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>154</v>
-      </c>
-      <c r="G99">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3519,22 +3548,22 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3542,22 +3571,22 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3565,22 +3594,22 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
         <v>145</v>
       </c>
-      <c r="C102" t="s">
-        <v>155</v>
-      </c>
-      <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102">
-        <v>99</v>
-      </c>
-      <c r="F102" t="s">
-        <v>47</v>
-      </c>
       <c r="G102" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3588,22 +3617,22 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="G103">
-        <v>9999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3611,241 +3640,209 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
-      <c r="B105" t="str">
-        <f>B104</f>
-        <v>p_crash2</v>
+      <c r="B105" t="s">
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-      <c r="H105" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
-      <c r="B106" t="str">
-        <f t="shared" ref="B106:B164" si="0">B105</f>
-        <v>p_crash2</v>
+      <c r="B106" t="s">
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="H106" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
-      <c r="B107" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B107" t="s">
+        <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G107">
-        <v>4</v>
-      </c>
-      <c r="H107" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
-      <c r="B108" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B108" t="s">
+        <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G108">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
-      <c r="B109" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B109" t="s">
+        <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="G109">
-        <v>6</v>
-      </c>
-      <c r="H109" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B110" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B110" t="s">
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="F110" t="s">
-        <v>165</v>
-      </c>
-      <c r="G110">
-        <v>8</v>
-      </c>
-      <c r="H110" t="s">
-        <v>167</v>
+        <v>47</v>
+      </c>
+      <c r="G110" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
-      <c r="B111" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B111" t="s">
+        <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>166</v>
-      </c>
-      <c r="G111">
-        <v>9</v>
-      </c>
-      <c r="H111" t="s">
-        <v>167</v>
+        <v>48</v>
+      </c>
+      <c r="G111" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
-      <c r="B112" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B112" t="s">
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3853,26 +3850,26 @@
         <v>6</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="0"/>
+        <f>B112</f>
         <v>p_crash2</v>
       </c>
       <c r="C113" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
         <v>158</v>
       </c>
-      <c r="D113" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113">
-        <v>11</v>
-      </c>
-      <c r="F113" t="s">
-        <v>169</v>
-      </c>
       <c r="G113">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3880,26 +3877,26 @@
         <v>6</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B114:B172" si="0">B113</f>
         <v>p_crash2</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G114">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3911,22 +3908,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G115">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3938,22 +3935,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G116">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3965,22 +3962,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G117">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3992,22 +3989,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G118">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4019,22 +4016,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G119">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4046,22 +4043,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G120">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4073,22 +4070,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G121">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4100,22 +4097,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G122">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4127,22 +4124,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
+        <v>168</v>
+      </c>
+      <c r="G123">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
         <v>176</v>
-      </c>
-      <c r="G123">
-        <v>20</v>
-      </c>
-      <c r="H123" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4154,22 +4151,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G124">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4181,22 +4178,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G125">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4208,22 +4205,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G126">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H126" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4235,22 +4232,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C127" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="G127">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H127" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4262,22 +4259,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G128">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H128" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4289,22 +4286,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G129">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4316,22 +4313,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G130">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4343,22 +4340,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C131" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F131" t="s">
+        <v>174</v>
+      </c>
+      <c r="G131">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
         <v>176</v>
-      </c>
-      <c r="G131">
-        <v>56</v>
-      </c>
-      <c r="H131" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4370,22 +4367,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G132">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H132" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4397,22 +4394,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
+        <v>177</v>
+      </c>
+      <c r="G133">
+        <v>50</v>
+      </c>
+      <c r="H133" t="s">
         <v>184</v>
-      </c>
-      <c r="G133">
-        <v>55</v>
-      </c>
-      <c r="H133" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4424,22 +4421,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
       </c>
       <c r="E134">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F134" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G134">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4451,22 +4448,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F135" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G135">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H135" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4478,22 +4475,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C136" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G136">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H136" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4505,22 +4502,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F137" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G137">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H137" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4532,22 +4529,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F138" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G138">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H138" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4559,22 +4556,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F139" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G139">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H139" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4586,22 +4583,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F140" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G140">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H140" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4613,22 +4610,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F141" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G141">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H141" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4640,22 +4637,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F142" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="G142">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H142" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4667,22 +4664,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
       </c>
       <c r="E143">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F143" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G143">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H143" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4694,22 +4691,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="E144">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G144">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H144" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4721,22 +4718,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G145">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H145" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4748,22 +4745,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G146">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H146" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4775,22 +4772,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F147" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G147">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H147" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4802,22 +4799,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C148" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F148" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G148">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H148" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4829,22 +4826,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C149" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F149" t="s">
+        <v>190</v>
+      </c>
+      <c r="G149">
+        <v>65</v>
+      </c>
+      <c r="H149" t="s">
         <v>200</v>
-      </c>
-      <c r="G149">
-        <v>74</v>
-      </c>
-      <c r="H149" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4856,22 +4853,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="E150">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F150" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G150">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H150" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4883,22 +4880,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F151" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G151">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H151" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4910,22 +4907,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C152" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F152" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G152">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H152" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4937,22 +4934,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F153" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G153">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H153" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4964,22 +4961,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C154" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
       </c>
       <c r="E154">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F154" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G154">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H154" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4991,22 +4988,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F155" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G155">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H155" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5018,22 +5015,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
       </c>
       <c r="E156">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F156" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G156">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H156" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5045,22 +5042,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G157">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H157" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5072,22 +5069,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="E158">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F158" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G158">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H158" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5099,22 +5096,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="E159">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F159" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G159">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H159" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5126,22 +5123,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
       </c>
       <c r="E160">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F160" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G160">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H160" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5153,22 +5150,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F161" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G161">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H161" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5180,22 +5177,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C162" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F162" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G162">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H162" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5207,22 +5204,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
       </c>
       <c r="E163">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="G163">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H163" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5234,203 +5231,235 @@
         <v>p_crash2</v>
       </c>
       <c r="C164" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
       </c>
       <c r="E164">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="G164">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="H164" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
-      <c r="B165" t="s">
-        <v>217</v>
+      <c r="B165" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C165" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F165" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="H165" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
-      <c r="B166" t="s">
-        <v>217</v>
+      <c r="B166" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C166" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="F166" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="H166" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
-      <c r="B167" t="s">
-        <v>217</v>
+      <c r="B167" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C167" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="G167">
-        <v>99</v>
+        <v>89</v>
+      </c>
+      <c r="H167" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
-      <c r="B168" t="s">
-        <v>217</v>
+      <c r="B168" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C168" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="F168" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G168">
-        <v>9999</v>
+        <v>90</v>
+      </c>
+      <c r="H168" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
-      <c r="B169" t="s">
-        <v>221</v>
+      <c r="B169" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C169" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F169" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="H169" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
-      <c r="B170" t="s">
-        <v>221</v>
+      <c r="B170" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C170" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F170" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="H170" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
-      <c r="B171" t="s">
-        <v>221</v>
+      <c r="B171" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="F171" t="s">
-        <v>223</v>
-      </c>
-      <c r="G171">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H171" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
-      <c r="B172" t="s">
-        <v>221</v>
+      <c r="B172" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C172" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F172" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5438,22 +5467,22 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
       </c>
       <c r="E173">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="G173">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5461,22 +5490,22 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C174" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G174">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5484,22 +5513,22 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C175" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
       </c>
       <c r="E175">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="F175" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="G175">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5507,22 +5536,22 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C176" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="E176">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>228</v>
-      </c>
-      <c r="G176">
-        <v>7</v>
+        <v>218</v>
+      </c>
+      <c r="G176" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5530,22 +5559,22 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C177" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="G177">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5553,25 +5582,22 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="E178">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G178">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s">
-        <v>232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5579,25 +5605,22 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C179" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5605,25 +5628,22 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C180" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
       </c>
       <c r="E180">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G180">
-        <v>6</v>
-      </c>
-      <c r="H180" t="s">
-        <v>232</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5631,25 +5651,22 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C181" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
       </c>
       <c r="E181">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G181">
-        <v>50</v>
-      </c>
-      <c r="H181" t="s">
-        <v>232</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5657,25 +5674,22 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C182" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G182">
-        <v>51</v>
-      </c>
-      <c r="H182" t="s">
-        <v>232</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5683,25 +5697,22 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C183" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="G183">
-        <v>99</v>
-      </c>
-      <c r="H183" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5709,761 +5720,779 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="C184" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
       </c>
       <c r="E184">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="G184">
-        <v>9999</v>
-      </c>
-      <c r="H184" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C185" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>239</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C186" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C187" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
       </c>
       <c r="E187">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="G187">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="H187" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F188" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H188" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C189" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="H189" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C190" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F190" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="H190" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C191" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F191" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="G191">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="H191" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C192" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
       </c>
       <c r="E192">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="F192" t="s">
-        <v>245</v>
-      </c>
-      <c r="G192">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="G192" t="s">
+        <v>285</v>
+      </c>
+      <c r="H192" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>235</v>
+      </c>
+      <c r="B193" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" t="s">
         <v>237</v>
       </c>
-      <c r="B193" t="s">
-        <v>240</v>
-      </c>
-      <c r="C193" t="s">
-        <v>247</v>
-      </c>
       <c r="D193" t="s">
         <v>15</v>
       </c>
       <c r="E193">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G193">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>235</v>
+      </c>
+      <c r="B194" t="s">
+        <v>236</v>
+      </c>
+      <c r="C194" t="s">
         <v>237</v>
       </c>
-      <c r="B194" t="s">
-        <v>240</v>
-      </c>
-      <c r="C194" t="s">
-        <v>247</v>
-      </c>
       <c r="D194" t="s">
         <v>15</v>
       </c>
       <c r="E194">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G194">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" t="s">
+        <v>236</v>
+      </c>
+      <c r="C195" t="s">
         <v>237</v>
       </c>
-      <c r="B195" t="s">
-        <v>248</v>
-      </c>
-      <c r="C195" t="s">
-        <v>247</v>
-      </c>
       <c r="D195" t="s">
         <v>15</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>241</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B196" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C196" t="s">
+        <v>245</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196">
+        <v>99</v>
+      </c>
+      <c r="F196" t="s">
         <v>247</v>
       </c>
-      <c r="D196" t="s">
-        <v>15</v>
-      </c>
-      <c r="E196">
-        <v>2</v>
-      </c>
-      <c r="F196" t="s">
-        <v>242</v>
-      </c>
       <c r="G196">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B197" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C197" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B198" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C198" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
       </c>
       <c r="E198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G198">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C199" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
       </c>
       <c r="E199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G199">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B200" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C200" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
       </c>
       <c r="E200">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F200" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G200">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B201" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C201" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
       </c>
       <c r="E201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="G201">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C202" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
       </c>
       <c r="E202">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F202" t="s">
-        <v>249</v>
-      </c>
-      <c r="G202">
-        <v>99</v>
+        <v>244</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B203" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C203" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F203" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C204" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D204" t="s">
         <v>15</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C205" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="G205">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B206" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C206" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
       </c>
       <c r="E206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F206" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="G206">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B207" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C207" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F207" t="s">
-        <v>266</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>269</v>
+        <v>242</v>
+      </c>
+      <c r="G207">
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C208" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F208" t="s">
-        <v>267</v>
-      </c>
-      <c r="G208" t="s">
-        <v>268</v>
+        <v>243</v>
+      </c>
+      <c r="G208">
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C209" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D209" t="s">
         <v>15</v>
       </c>
       <c r="E209">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>270</v>
-      </c>
-      <c r="G209" t="s">
-        <v>271</v>
+        <v>244</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
       </c>
       <c r="E210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F210" t="s">
-        <v>272</v>
-      </c>
-      <c r="G210" t="s">
-        <v>273</v>
+        <v>18</v>
+      </c>
+      <c r="G210">
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B211" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
       </c>
       <c r="E211">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="F211" t="s">
-        <v>274</v>
-      </c>
-      <c r="G211" t="s">
-        <v>275</v>
+        <v>247</v>
+      </c>
+      <c r="G211">
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C212" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D212" t="s">
         <v>15</v>
       </c>
       <c r="E212">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>276</v>
-      </c>
-      <c r="G212" t="s">
-        <v>277</v>
+        <v>250</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C213" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
       </c>
       <c r="E213">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G213">
-        <v>850</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B214" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C214" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D214" t="s">
         <v>15</v>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>267</v>
-      </c>
-      <c r="G214" t="s">
-        <v>279</v>
+        <v>18</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B215" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C215" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D215" t="s">
         <v>15</v>
       </c>
       <c r="E215">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
-      </c>
-      <c r="G215" t="s">
-        <v>280</v>
+        <v>53</v>
+      </c>
+      <c r="G215">
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B216" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C216" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
       </c>
       <c r="E216">
-        <v>998</v>
+        <v>5</v>
       </c>
       <c r="F216" t="s">
-        <v>281</v>
-      </c>
-      <c r="G216">
-        <v>998</v>
+        <v>48</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6471,22 +6500,229 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
+        <v>262</v>
+      </c>
+      <c r="C217" t="s">
+        <v>263</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
         <v>264</v>
       </c>
-      <c r="C217" t="s">
+      <c r="G217" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>262</v>
+      </c>
+      <c r="C218" t="s">
+        <v>263</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s">
         <v>265</v>
       </c>
-      <c r="D217" t="s">
-        <v>15</v>
-      </c>
-      <c r="E217">
+      <c r="G218" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" t="s">
+        <v>263</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="F219" t="s">
+        <v>268</v>
+      </c>
+      <c r="G219" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>262</v>
+      </c>
+      <c r="C220" t="s">
+        <v>263</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>270</v>
+      </c>
+      <c r="G220" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>262</v>
+      </c>
+      <c r="C221" t="s">
+        <v>263</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221" t="s">
+        <v>272</v>
+      </c>
+      <c r="G221" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>262</v>
+      </c>
+      <c r="C222" t="s">
+        <v>263</v>
+      </c>
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>274</v>
+      </c>
+      <c r="G222" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>262</v>
+      </c>
+      <c r="C223" t="s">
+        <v>263</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223">
+        <v>7</v>
+      </c>
+      <c r="F223" t="s">
+        <v>276</v>
+      </c>
+      <c r="G223">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>262</v>
+      </c>
+      <c r="C224" t="s">
+        <v>263</v>
+      </c>
+      <c r="D224" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>40</v>
+      </c>
+      <c r="G224" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>262</v>
+      </c>
+      <c r="C225" t="s">
+        <v>263</v>
+      </c>
+      <c r="D225" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225">
+        <v>998</v>
+      </c>
+      <c r="F225" t="s">
+        <v>278</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>262</v>
+      </c>
+      <c r="C226" t="s">
+        <v>263</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226">
         <v>999</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F226" t="s">
         <v>83</v>
       </c>
-      <c r="G217" s="2">
-        <v>997998</v>
+      <c r="G226" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6500,7 +6736,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6562,10 +6798,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" t="s">
         <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/kc/kc_data_dict.xlsx
+++ b/kc/kc_data_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Classes\W210 - Capstone\NYCTrafficCollisions\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324C849B-9F9B-4332-BA05-3A7F3122F7AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA552BC-0613-4582-84A2-E735D8856F37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="293">
   <si>
     <t>Variable</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Vehicle Traveling Speed</t>
   </si>
   <si>
-    <t>&gt;151mph</t>
-  </si>
-  <si>
     <t>underride</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>vpavetype</t>
-  </si>
-  <si>
     <t>mostly asphalt or unreported or concrete</t>
   </si>
   <si>
@@ -395,9 +389,6 @@
     <t>Oil &amp; Other</t>
   </si>
   <si>
-    <t>7,8</t>
-  </si>
-  <si>
     <t>Sand, Mud, Dirt, Gravel</t>
   </si>
   <si>
@@ -800,9 +791,6 @@
     <t>6, 10, 11, 12, 15</t>
   </si>
   <si>
-    <t>9999 = all else</t>
-  </si>
-  <si>
     <t>998,999</t>
   </si>
   <si>
@@ -872,9 +860,6 @@
     <t>Motor Homes</t>
   </si>
   <si>
-    <t>870:898</t>
-  </si>
-  <si>
     <t>901:989</t>
   </si>
   <si>
@@ -891,14 +876,52 @@
   </si>
   <si>
     <t>Numeric</t>
+  </si>
+  <si>
+    <t>997,998</t>
+  </si>
+  <si>
+    <t>9999 , n= all else (this should always be the LAST category), the 2nd numer should be max of the category</t>
+  </si>
+  <si>
+    <t>9999,99</t>
+  </si>
+  <si>
+    <t>9999,10</t>
+  </si>
+  <si>
+    <t>9999,100</t>
+  </si>
+  <si>
+    <t>vpavetyp</t>
+  </si>
+  <si>
+    <t>9999,1000</t>
+  </si>
+  <si>
+    <t>No Rollover</t>
+  </si>
+  <si>
+    <t>9999,8</t>
+  </si>
+  <si>
+    <t>9999,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -929,10 +952,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FB29DA-B7F0-47F0-877E-10B77E041BFB}">
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1282,8 @@
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="7" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1287,8 +1311,8 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
-        <v>257</v>
+      <c r="I1" s="5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,11 +1328,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>285</v>
-      </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>280</v>
+      </c>
+      <c r="I2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1327,11 +1351,14 @@
       <c r="E3">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="G3">
-        <v>9999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1411,19 +1438,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
       <c r="F7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H7" t="s">
-        <v>259</v>
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1431,22 +1461,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>137</v>
+        <v>234</v>
+      </c>
+      <c r="H8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,13 +1490,13 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1486,13 +1513,13 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,13 +1536,13 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1532,13 +1559,13 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,13 +1582,13 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G13">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1569,17 +1596,22 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="H14" t="s">
-        <v>236</v>
+      <c r="E14">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,22 +1619,22 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,22 +1642,17 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="H16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,13 +1669,13 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>234</v>
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,13 +1715,13 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1711,13 +1738,13 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>260</v>
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1734,13 +1761,13 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>261</v>
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1757,13 +1784,13 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>255</v>
+        <v>44</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,13 +1807,13 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>256</v>
+        <v>46</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,13 +1830,13 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,13 +1853,13 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <v>9999</v>
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,13 +1876,13 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,13 +1890,22 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1877,22 +1913,22 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1900,22 +1936,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1932,13 +1959,13 @@
         <v>52</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1946,13 +1973,22 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>287</v>
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1960,390 +1996,384 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>59</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>152</v>
       </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32">
+      <c r="F35">
+        <v>152</v>
+      </c>
+      <c r="G35">
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>999</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
         <v>63</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34">
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C42" t="s">
         <v>66</v>
       </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
         <v>66</v>
       </c>
-      <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38">
+      <c r="G43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
         <v>69</v>
       </c>
-      <c r="G38">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39">
+      <c r="G48">
         <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48">
-        <v>42</v>
-      </c>
-      <c r="F48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48">
-        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2351,22 +2381,22 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G49">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,22 +2404,22 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
         <v>77</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
         <v>78</v>
       </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50">
-        <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>84</v>
-      </c>
       <c r="G50">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2397,22 +2427,22 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2420,10 +2450,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2432,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2443,22 +2473,22 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="G53">
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2466,22 +2496,22 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2489,22 +2519,22 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2512,22 +2542,22 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
         <v>85</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>86</v>
       </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>93</v>
-      </c>
       <c r="G56">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2535,22 +2565,22 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
         <v>85</v>
       </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2558,16 +2588,22 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" t="s">
-        <v>97</v>
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2575,22 +2611,22 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,16 +2634,22 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" t="s">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,22 +2657,22 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G61" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,22 +2680,22 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G62" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,22 +2703,22 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>104</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2684,309 +2726,303 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>99</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>99</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
         <v>102</v>
       </c>
-      <c r="C64" t="s">
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
         <v>101</v>
       </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64">
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70">
         <v>2</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
         <v>105</v>
       </c>
-      <c r="G64" t="s">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
         <v>102</v>
       </c>
-      <c r="C65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65">
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>108</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75">
         <v>9</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F75" t="s">
         <v>47</v>
       </c>
-      <c r="G65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
         <v>107</v>
       </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>103</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
         <v>109</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68" t="s">
-        <v>110</v>
-      </c>
-      <c r="G68">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>115</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s">
-        <v>119</v>
-      </c>
-      <c r="G72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74">
-        <v>4</v>
-      </c>
-      <c r="F74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>121</v>
-      </c>
-      <c r="G75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76">
-        <v>99</v>
-      </c>
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
       <c r="G76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -2995,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -3018,56 +3054,56 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>263</v>
+        <v>114</v>
+      </c>
+      <c r="G80" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,22 +3111,22 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="G81" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,22 +3134,22 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82">
-        <v>9999</v>
+        <v>119</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3121,10 +3157,10 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -3136,7 +3172,7 @@
         <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,10 +3180,10 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -3156,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3167,22 +3203,22 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
+        <v>124</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,22 +3226,22 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="G86">
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,22 +3249,22 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3236,22 +3272,22 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,22 +3295,22 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>140</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="G89" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3282,22 +3318,22 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G90" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,22 +3341,22 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,22 +3364,22 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3351,22 +3387,22 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>147</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3374,22 +3410,22 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>148</v>
-      </c>
-      <c r="G94" t="s">
-        <v>157</v>
+        <v>48</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3397,22 +3433,22 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="G95" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3420,22 +3456,22 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3443,22 +3479,22 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3466,22 +3502,22 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
-      </c>
-      <c r="G98">
-        <v>11</v>
+        <v>140</v>
+      </c>
+      <c r="G98" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3489,22 +3525,22 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
-      </c>
-      <c r="G99">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3512,22 +3548,22 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3535,22 +3571,22 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3558,22 +3594,22 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
-      </c>
-      <c r="G102">
-        <v>9999</v>
+        <v>145</v>
+      </c>
+      <c r="G102" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,22 +3617,22 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
-      </c>
-      <c r="G103" t="s">
-        <v>96</v>
+        <v>148</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3604,241 +3640,209 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
-      <c r="B105" t="str">
-        <f>B104</f>
-        <v>p_crash2</v>
+      <c r="B105" t="s">
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-      <c r="H105" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
-      <c r="B106" t="str">
-        <f t="shared" ref="B106:B164" si="0">B105</f>
-        <v>p_crash2</v>
+      <c r="B106" t="s">
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="H106" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
-      <c r="B107" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B107" t="s">
+        <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G107">
-        <v>4</v>
-      </c>
-      <c r="H107" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
-      <c r="B108" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B108" t="s">
+        <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G108">
-        <v>5</v>
-      </c>
-      <c r="H108" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
-      <c r="B109" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B109" t="s">
+        <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G109">
-        <v>6</v>
-      </c>
-      <c r="H109" t="s">
-        <v>168</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
-      <c r="B110" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B110" t="s">
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="F110" t="s">
-        <v>166</v>
-      </c>
-      <c r="G110">
-        <v>8</v>
-      </c>
-      <c r="H110" t="s">
-        <v>168</v>
+        <v>47</v>
+      </c>
+      <c r="G110" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
-      <c r="B111" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B111" t="s">
+        <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>167</v>
-      </c>
-      <c r="G111">
-        <v>9</v>
-      </c>
-      <c r="H111" t="s">
-        <v>168</v>
+        <v>48</v>
+      </c>
+      <c r="G111" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
-      <c r="B112" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B112" t="s">
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3846,26 +3850,26 @@
         <v>6</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="0"/>
+        <f>B112</f>
         <v>p_crash2</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G113">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3873,26 +3877,26 @@
         <v>6</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B114:B172" si="0">B113</f>
         <v>p_crash2</v>
       </c>
       <c r="C114" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
         <v>159</v>
       </c>
-      <c r="D114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114">
-        <v>12</v>
-      </c>
-      <c r="F114" t="s">
-        <v>171</v>
-      </c>
       <c r="G114">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3904,22 +3908,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G115">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3931,22 +3935,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C116" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G116">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3958,22 +3962,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G117">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3985,22 +3989,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C118" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G118">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H118" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4012,22 +4016,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C119" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G119">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4039,22 +4043,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C120" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G120">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4066,22 +4070,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G121">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4093,22 +4097,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C122" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
+        <v>168</v>
+      </c>
+      <c r="G122">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
         <v>176</v>
-      </c>
-      <c r="G122">
-        <v>19</v>
-      </c>
-      <c r="H122" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4120,22 +4124,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G123">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4147,22 +4151,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G124">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4174,22 +4178,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G125">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,22 +4205,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="G126">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H126" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4228,22 +4232,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C127" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="G127">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H127" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4255,22 +4259,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C128" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G128">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H128" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4282,22 +4286,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G129">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4309,22 +4313,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C130" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G130">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4336,22 +4340,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G131">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,22 +4367,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C132" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G132">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H132" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4390,22 +4394,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C133" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G133">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H133" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,22 +4421,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
       </c>
       <c r="E134">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F134" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G134">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H134" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4444,22 +4448,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C135" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F135" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G135">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H135" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4471,22 +4475,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F136" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G136">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H136" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4498,22 +4502,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C137" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F137" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G137">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H137" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4525,22 +4529,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F138" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G138">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H138" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4552,22 +4556,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F139" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G139">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H139" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4579,22 +4583,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F140" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G140">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H140" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4606,22 +4610,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F141" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G141">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H141" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4633,22 +4637,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F142" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G142">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H142" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4660,22 +4664,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
       </c>
       <c r="E143">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F143" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G143">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H143" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4687,22 +4691,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="E144">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F144" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G144">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H144" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4714,22 +4718,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G145">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H145" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4741,22 +4745,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G146">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H146" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4768,22 +4772,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F147" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G147">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H147" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,22 +4799,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F148" t="s">
+        <v>189</v>
+      </c>
+      <c r="G148">
+        <v>64</v>
+      </c>
+      <c r="H148" t="s">
         <v>200</v>
-      </c>
-      <c r="G148">
-        <v>73</v>
-      </c>
-      <c r="H148" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,22 +4826,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F149" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G149">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H149" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4849,22 +4853,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="E150">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F150" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G150">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H150" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4876,22 +4880,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F151" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G151">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H151" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4903,22 +4907,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F152" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G152">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H152" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4930,22 +4934,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F153" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G153">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H153" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,22 +4961,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C154" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
       </c>
       <c r="E154">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F154" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G154">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H154" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4984,22 +4988,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C155" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F155" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G155">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H155" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5011,22 +5015,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
       </c>
       <c r="E156">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F156" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G156">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H156" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5038,22 +5042,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G157">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H157" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5065,22 +5069,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="E158">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F158" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G158">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H158" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5092,22 +5096,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="E159">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F159" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G159">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5119,22 +5123,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C160" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
       </c>
       <c r="E160">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F160" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G160">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H160" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5146,22 +5150,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F161" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G161">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H161" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5173,22 +5177,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F162" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G162">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H162" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5200,22 +5204,22 @@
         <v>p_crash2</v>
       </c>
       <c r="C163" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
       </c>
       <c r="E163">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F163" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="G163">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H163" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5227,203 +5231,235 @@
         <v>p_crash2</v>
       </c>
       <c r="C164" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
       </c>
       <c r="E164">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="G164">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="H164" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
-      <c r="B165" t="s">
-        <v>218</v>
+      <c r="B165" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C165" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F165" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="H165" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
-      <c r="B166" t="s">
-        <v>218</v>
+      <c r="B166" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C166" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="F166" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="H166" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
-      <c r="B167" t="s">
-        <v>218</v>
+      <c r="B167" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C167" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="F167" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G167">
-        <v>9999</v>
+        <v>89</v>
+      </c>
+      <c r="H167" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
-      <c r="B168" t="s">
-        <v>218</v>
+      <c r="B168" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="G168">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="H168" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
-      <c r="B169" t="s">
-        <v>222</v>
+      <c r="B169" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F169" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="H169" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
-      <c r="B170" t="s">
-        <v>222</v>
+      <c r="B170" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C170" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="F170" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="H170" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
-      <c r="B171" t="s">
-        <v>222</v>
+      <c r="B171" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C171" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="F171" t="s">
-        <v>224</v>
-      </c>
-      <c r="G171">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H171" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
-      <c r="B172" t="s">
-        <v>222</v>
+      <c r="B172" t="str">
+        <f t="shared" si="0"/>
+        <v>p_crash2</v>
       </c>
       <c r="C172" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F172" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5431,22 +5467,22 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C173" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
       </c>
       <c r="E173">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="G173">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5454,22 +5490,22 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C174" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G174">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5477,22 +5513,22 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C175" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
       </c>
       <c r="E175">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="F175" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="G175">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5500,22 +5536,22 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C176" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="E176">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>229</v>
-      </c>
-      <c r="G176">
-        <v>7</v>
+        <v>218</v>
+      </c>
+      <c r="G176" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5523,22 +5559,22 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C177" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="G177">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5546,25 +5582,22 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="E178">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G178">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s">
-        <v>233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -5572,25 +5605,22 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C179" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179" t="s">
-        <v>233</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5598,25 +5628,22 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C180" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
       </c>
       <c r="E180">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G180">
-        <v>6</v>
-      </c>
-      <c r="H180" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -5624,25 +5651,22 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C181" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
       </c>
       <c r="E181">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G181">
-        <v>50</v>
-      </c>
-      <c r="H181" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -5650,25 +5674,22 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C182" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G182">
-        <v>51</v>
-      </c>
-      <c r="H182" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,25 +5697,22 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C183" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="G183">
-        <v>9999</v>
-      </c>
-      <c r="H183" t="s">
-        <v>233</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -5702,761 +5720,779 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C184" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
       </c>
       <c r="E184">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="G184">
-        <v>99</v>
-      </c>
-      <c r="H184" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C185" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>240</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C186" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
       </c>
       <c r="E187">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="G187">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="H187" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F188" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H188" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C189" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F189" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="H189" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C190" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F190" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="H190" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C191" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D191" t="s">
         <v>15</v>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F191" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="G191">
-        <v>4</v>
+        <v>99</v>
+      </c>
+      <c r="H191" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C192" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D192" t="s">
         <v>15</v>
       </c>
       <c r="E192">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="F192" t="s">
-        <v>246</v>
-      </c>
-      <c r="G192">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="G192" t="s">
+        <v>285</v>
+      </c>
+      <c r="H192" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B193" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C193" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
       </c>
       <c r="E193">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G193">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B194" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
       </c>
       <c r="E194">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G194">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B195" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C195" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>242</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>235</v>
+      </c>
+      <c r="B196" t="s">
         <v>238</v>
       </c>
-      <c r="B196" t="s">
-        <v>249</v>
-      </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="F196" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>235</v>
+      </c>
+      <c r="B197" t="s">
         <v>238</v>
       </c>
-      <c r="B197" t="s">
-        <v>249</v>
-      </c>
       <c r="C197" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
       </c>
       <c r="E197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>235</v>
+      </c>
+      <c r="B198" t="s">
         <v>238</v>
       </c>
-      <c r="B198" t="s">
-        <v>249</v>
-      </c>
       <c r="C198" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
       </c>
       <c r="E198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G198">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>235</v>
+      </c>
+      <c r="B199" t="s">
         <v>238</v>
       </c>
-      <c r="B199" t="s">
-        <v>249</v>
-      </c>
       <c r="C199" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
       </c>
       <c r="E199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G199">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>235</v>
+      </c>
+      <c r="B200" t="s">
         <v>238</v>
       </c>
-      <c r="B200" t="s">
-        <v>249</v>
-      </c>
       <c r="C200" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
       </c>
       <c r="E200">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F200" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G200">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>235</v>
+      </c>
+      <c r="B201" t="s">
         <v>238</v>
       </c>
-      <c r="B201" t="s">
-        <v>249</v>
-      </c>
       <c r="C201" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
       </c>
       <c r="E201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="G201">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>235</v>
+      </c>
+      <c r="B202" t="s">
         <v>238</v>
       </c>
-      <c r="B202" t="s">
-        <v>249</v>
-      </c>
       <c r="C202" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
       </c>
       <c r="E202">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F202" t="s">
-        <v>250</v>
-      </c>
-      <c r="G202">
-        <v>99</v>
+        <v>244</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>235</v>
+      </c>
+      <c r="B203" t="s">
         <v>238</v>
       </c>
-      <c r="B203" t="s">
-        <v>251</v>
-      </c>
       <c r="C203" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F203" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C204" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D204" t="s">
         <v>15</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C205" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="G205">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B206" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C206" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
       </c>
       <c r="E206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F206" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="G206">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B207" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C207" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F207" t="s">
-        <v>268</v>
-      </c>
-      <c r="G207" s="4" t="s">
-        <v>271</v>
+        <v>242</v>
+      </c>
+      <c r="G207">
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C208" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F208" t="s">
-        <v>269</v>
-      </c>
-      <c r="G208" t="s">
-        <v>270</v>
+        <v>243</v>
+      </c>
+      <c r="G208">
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C209" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D209" t="s">
         <v>15</v>
       </c>
       <c r="E209">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>272</v>
-      </c>
-      <c r="G209" t="s">
-        <v>273</v>
+        <v>244</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
       </c>
       <c r="E210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F210" t="s">
-        <v>274</v>
-      </c>
-      <c r="G210" t="s">
-        <v>275</v>
+        <v>18</v>
+      </c>
+      <c r="G210">
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B211" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C211" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
       </c>
       <c r="E211">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="F211" t="s">
-        <v>276</v>
-      </c>
-      <c r="G211" t="s">
-        <v>277</v>
+        <v>247</v>
+      </c>
+      <c r="G211">
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C212" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D212" t="s">
         <v>15</v>
       </c>
       <c r="E212">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>278</v>
-      </c>
-      <c r="G212" t="s">
-        <v>279</v>
+        <v>250</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C213" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
       </c>
       <c r="E213">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="G213">
-        <v>850</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B214" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C214" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D214" t="s">
         <v>15</v>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>269</v>
-      </c>
-      <c r="G214" t="s">
-        <v>281</v>
+        <v>18</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B215" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C215" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D215" t="s">
         <v>15</v>
       </c>
       <c r="E215">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
-      </c>
-      <c r="G215" t="s">
-        <v>282</v>
+        <v>53</v>
+      </c>
+      <c r="G215">
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B216" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C216" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
       </c>
       <c r="E216">
-        <v>998</v>
+        <v>5</v>
       </c>
       <c r="F216" t="s">
-        <v>283</v>
-      </c>
-      <c r="G216">
-        <v>998</v>
+        <v>48</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6464,22 +6500,229 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
+        <v>262</v>
+      </c>
+      <c r="C217" t="s">
+        <v>263</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>264</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>262</v>
+      </c>
+      <c r="C218" t="s">
+        <v>263</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s">
+        <v>265</v>
+      </c>
+      <c r="G218" t="s">
         <v>266</v>
       </c>
-      <c r="C217" t="s">
-        <v>267</v>
-      </c>
-      <c r="D217" t="s">
-        <v>15</v>
-      </c>
-      <c r="E217">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" t="s">
+        <v>263</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+      <c r="F219" t="s">
+        <v>268</v>
+      </c>
+      <c r="G219" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>262</v>
+      </c>
+      <c r="C220" t="s">
+        <v>263</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>270</v>
+      </c>
+      <c r="G220" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>262</v>
+      </c>
+      <c r="C221" t="s">
+        <v>263</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221" t="s">
+        <v>272</v>
+      </c>
+      <c r="G221" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>262</v>
+      </c>
+      <c r="C222" t="s">
+        <v>263</v>
+      </c>
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>274</v>
+      </c>
+      <c r="G222" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>262</v>
+      </c>
+      <c r="C223" t="s">
+        <v>263</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223">
+        <v>7</v>
+      </c>
+      <c r="F223" t="s">
+        <v>276</v>
+      </c>
+      <c r="G223">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>262</v>
+      </c>
+      <c r="C224" t="s">
+        <v>263</v>
+      </c>
+      <c r="D224" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>40</v>
+      </c>
+      <c r="G224" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>262</v>
+      </c>
+      <c r="C225" t="s">
+        <v>263</v>
+      </c>
+      <c r="D225" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225">
+        <v>998</v>
+      </c>
+      <c r="F225" t="s">
+        <v>278</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>262</v>
+      </c>
+      <c r="C226" t="s">
+        <v>263</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226">
         <v>999</v>
       </c>
-      <c r="F217" t="s">
-        <v>84</v>
-      </c>
-      <c r="G217" s="2">
-        <v>997998</v>
+      <c r="F226" t="s">
+        <v>83</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6493,7 +6736,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6544,10 +6787,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,10 +6798,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/kc/kc_data_dict.xlsx
+++ b/kc/kc_data_dict.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Classes\W210 - Capstone\NYCTrafficCollisions\kc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\crossover\My Documents\Classes\W210 - Capstone\NYCTrafficCollisions\kc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA552BC-0613-4582-84A2-E735D8856F37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{895D2BAD-501D-4616-9672-884AC9F0551D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Dropped Variables" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="307">
   <si>
     <t>Variable</t>
   </si>
@@ -146,9 +145,6 @@
     <t>Trucks</t>
   </si>
   <si>
-    <t>32, 33, 34, 39, 40, 41, 45, 48, 49</t>
-  </si>
-  <si>
     <t>Buses</t>
   </si>
   <si>
@@ -906,13 +902,58 @@
   </si>
   <si>
     <t>9999,5</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>Out-of-state</t>
+  </si>
+  <si>
+    <t>In-state</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>&lt;3 yr</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>bin - same travel sp</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>32, 33, 34, 39, 40, 41, 45, 48, 49, 30, 31</t>
+  </si>
+  <si>
+    <t>vehicle_readjustment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,13 +990,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1269,24 +1311,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FB29DA-B7F0-47F0-877E-10B77E041BFB}">
-  <dimension ref="A1:I226"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G171" sqref="G171"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1312,10 +1354,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1329,13 +1371,13 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1433,7 +1475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1450,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1470,13 +1512,19 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="M8" t="s">
+        <v>296</v>
+      </c>
+      <c r="N8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1496,10 +1544,10 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1545,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1662,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1631,13 +1679,13 @@
         <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1652,10 +1700,13 @@
       </c>
       <c r="E16" s="1"/>
       <c r="H16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="M16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1698,10 +1749,10 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1721,10 +1772,10 @@
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1741,13 +1792,13 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1767,10 +1818,10 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1787,13 +1838,13 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1810,13 +1861,13 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1836,10 +1887,10 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1856,13 +1907,13 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1879,13 +1930,13 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
         <v>40</v>
       </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1902,13 +1953,13 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1925,141 +1976,165 @@
         <v>11</v>
       </c>
       <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" t="s">
         <v>48</v>
       </c>
-      <c r="G28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s">
+        <v>299</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="O29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="D29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>51</v>
-      </c>
-      <c r="D30" t="s">
-        <v>52</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="M33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
       <c r="D34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="M34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -2073,16 +2148,19 @@
       <c r="G35">
         <v>997</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -2094,21 +2172,24 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
         <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2123,15 +2204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2143,18 +2224,18 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
         <v>62</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -2163,21 +2244,21 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
         <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -2186,21 +2267,21 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
         <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -2209,21 +2290,21 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
         <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -2232,21 +2313,21 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
         <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -2255,44 +2336,44 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
         <v>70</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
         <v>71</v>
       </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>72</v>
-      </c>
       <c r="G44">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
         <v>70</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -2301,21 +2382,21 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
         <v>70</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -2324,21 +2405,21 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
         <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -2347,21 +2428,21 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
         <v>70</v>
-      </c>
-      <c r="C48" t="s">
-        <v>71</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2370,21 +2451,21 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
         <v>70</v>
-      </c>
-      <c r="C49" t="s">
-        <v>71</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2393,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
         <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>77</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2416,21 +2497,21 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
         <v>76</v>
-      </c>
-      <c r="C51" t="s">
-        <v>77</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2439,21 +2520,21 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
         <v>76</v>
-      </c>
-      <c r="C52" t="s">
-        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2462,21 +2543,21 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
         <v>76</v>
-      </c>
-      <c r="C53" t="s">
-        <v>77</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2485,21 +2566,21 @@
         <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
         <v>76</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2508,21 +2589,21 @@
         <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G54">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
         <v>76</v>
-      </c>
-      <c r="C55" t="s">
-        <v>77</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2531,21 +2612,21 @@
         <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>6</v>
       </c>
       <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
         <v>84</v>
-      </c>
-      <c r="C56" t="s">
-        <v>85</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -2554,21 +2635,21 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
         <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2577,21 +2658,21 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>6</v>
       </c>
       <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
         <v>84</v>
-      </c>
-      <c r="C58" t="s">
-        <v>85</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2600,21 +2681,21 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
         <v>89</v>
       </c>
-      <c r="G58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
         <v>84</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2623,21 +2704,21 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
         <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -2646,22 +2727,22 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
         <v>84</v>
       </c>
-      <c r="C61" t="s">
-        <v>85</v>
-      </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
@@ -2669,881 +2750,899 @@
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" t="s">
-        <v>85</v>
-      </c>
       <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63">
         <v>10</v>
       </c>
-      <c r="F63" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>95</v>
+      </c>
+      <c r="L63" t="s">
+        <v>292</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="P63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
+      <c r="E64">
+        <v>99</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>92</v>
+      </c>
       <c r="H64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>260</v>
-      </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
-      <c r="E65">
-        <v>99</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>93</v>
-      </c>
       <c r="H65" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="L65" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
         <v>97</v>
-      </c>
-      <c r="C66" t="s">
-        <v>98</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
       </c>
+      <c r="E66">
+        <v>99</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
       <c r="H66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" t="s">
-        <v>98</v>
-      </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" t="s">
-        <v>100</v>
-      </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>102</v>
       </c>
       <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>103</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
         <v>100</v>
       </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s">
-        <v>104</v>
-      </c>
-      <c r="G70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>101</v>
-      </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
         <v>47</v>
       </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>6</v>
       </c>
       <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
         <v>101</v>
       </c>
-      <c r="C72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>48</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>112</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73">
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>99</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83">
         <v>0</v>
       </c>
-      <c r="F73" t="s">
-        <v>102</v>
-      </c>
-      <c r="G73">
+      <c r="F83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74">
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
         <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>108</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>47</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>113</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
-      <c r="F80" t="s">
-        <v>114</v>
-      </c>
-      <c r="G80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83">
-        <v>99</v>
-      </c>
-      <c r="F83" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
       </c>
       <c r="F84" t="s">
         <v>123</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F85" t="s">
         <v>124</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
         <v>125</v>
       </c>
-      <c r="G86">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="E87">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
         <v>126</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>6</v>
       </c>
       <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>99</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s">
+        <v>127</v>
+      </c>
+      <c r="G89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
         <v>122</v>
       </c>
-      <c r="C88" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88">
-        <v>40</v>
-      </c>
-      <c r="F88" t="s">
-        <v>127</v>
-      </c>
-      <c r="G88">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89">
-        <v>99</v>
-      </c>
-      <c r="F89" t="s">
-        <v>47</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s">
-        <v>128</v>
-      </c>
-      <c r="G90" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
         <v>131</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
         <v>130</v>
       </c>
-      <c r="D91" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>123</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>131</v>
-      </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>132</v>
       </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>47</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
         <v>130</v>
       </c>
-      <c r="D93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93">
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96">
         <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" t="s">
-        <v>130</v>
-      </c>
-      <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94">
-        <v>8</v>
-      </c>
-      <c r="F94" t="s">
-        <v>48</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>47</v>
-      </c>
-      <c r="G95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>142</v>
-      </c>
-      <c r="C96" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
       </c>
       <c r="F96" t="s">
         <v>136</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
         <v>137</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s">
-        <v>140</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="G98" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>142</v>
-      </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
         <v>138</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -3551,355 +3650,359 @@
         <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
       </c>
       <c r="E100">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>144</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
-      </c>
-      <c r="G102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" t="s">
         <v>148</v>
       </c>
       <c r="G103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
         <v>149</v>
       </c>
       <c r="G104">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
         <v>150</v>
       </c>
       <c r="G105">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
         <v>151</v>
       </c>
       <c r="G106">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
+        <v>145</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" t="s">
         <v>152</v>
       </c>
-      <c r="G107">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" t="s">
-        <v>153</v>
-      </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
         <v>146</v>
       </c>
       <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
-      </c>
-      <c r="G109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G109" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F110" t="s">
         <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G111" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>6</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="str">
+        <f>B111</f>
+        <v>p_crash2</v>
+      </c>
+      <c r="C112" t="s">
         <v>155</v>
       </c>
-      <c r="C112" t="s">
-        <v>156</v>
-      </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
         <v>157</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>6</v>
       </c>
       <c r="B113" t="str">
-        <f>B112</f>
+        <f t="shared" ref="B113:B171" si="0">B112</f>
         <v>p_crash2</v>
       </c>
       <c r="C113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
         <v>158</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>6</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" ref="B114:B172" si="0">B113</f>
+        <f t="shared" si="0"/>
         <v>p_crash2</v>
       </c>
       <c r="C114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114" t="s">
         <v>159</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3908,25 +4011,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115" t="s">
         <v>160</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -3935,25 +4038,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F116" t="s">
         <v>161</v>
       </c>
       <c r="G116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -3962,25 +4065,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F117" t="s">
         <v>162</v>
       </c>
       <c r="G117">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -3989,25 +4092,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
         <v>163</v>
       </c>
       <c r="G118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H118" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -4016,25 +4119,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -4043,25 +4146,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
         <v>166</v>
       </c>
       <c r="G120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -4070,25 +4173,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
         <v>167</v>
       </c>
       <c r="G121">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -4097,7 +4200,7 @@
         <v>p_crash2</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -4106,16 +4209,16 @@
         <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G122">
         <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -4124,25 +4227,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
         <v>168</v>
       </c>
       <c r="G123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -4151,25 +4254,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
         <v>169</v>
       </c>
       <c r="G124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4178,25 +4281,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C125" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H125" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4205,25 +4308,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G126">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H126" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -4232,25 +4335,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G127">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H127" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -4259,25 +4362,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F128" t="s">
         <v>171</v>
       </c>
       <c r="G128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -4286,25 +4389,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F129" t="s">
         <v>172</v>
       </c>
       <c r="G129">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -4313,25 +4416,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F130" t="s">
         <v>173</v>
       </c>
       <c r="G130">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -4340,25 +4443,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F131" t="s">
         <v>174</v>
       </c>
       <c r="G131">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -4367,25 +4470,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G132">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H132" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -4394,25 +4497,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F133" t="s">
         <v>177</v>
       </c>
       <c r="G133">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H133" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -4421,25 +4524,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
       </c>
       <c r="E134">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F134" t="s">
         <v>178</v>
       </c>
       <c r="G134">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H134" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4448,25 +4551,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F135" t="s">
         <v>179</v>
       </c>
       <c r="G135">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -4475,25 +4578,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F136" t="s">
         <v>180</v>
       </c>
       <c r="G136">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H136" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -4502,25 +4605,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F137" t="s">
         <v>181</v>
       </c>
       <c r="G137">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4529,25 +4632,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G138">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H138" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4556,25 +4659,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
       </c>
       <c r="E139">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F139" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G139">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4583,25 +4686,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="E140">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F140" t="s">
+        <v>181</v>
+      </c>
+      <c r="G140">
+        <v>55</v>
+      </c>
+      <c r="H140" t="s">
         <v>183</v>
       </c>
-      <c r="G140">
-        <v>59</v>
-      </c>
-      <c r="H140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4610,25 +4713,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F141" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G141">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4637,25 +4740,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F142" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G142">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4664,25 +4767,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
       </c>
       <c r="E143">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F143" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G143">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4691,25 +4794,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C144" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
       <c r="E144">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F144" t="s">
         <v>185</v>
       </c>
       <c r="G144">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H144" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -4718,25 +4821,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
       </c>
       <c r="E145">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F145" t="s">
         <v>186</v>
       </c>
       <c r="G145">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H145" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4745,25 +4848,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
       </c>
       <c r="E146">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F146" t="s">
         <v>187</v>
       </c>
       <c r="G146">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H146" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -4772,25 +4875,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
       <c r="E147">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F147" t="s">
         <v>188</v>
       </c>
       <c r="G147">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H147" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4799,25 +4902,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
       </c>
       <c r="E148">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F148" t="s">
         <v>189</v>
       </c>
       <c r="G148">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H148" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4826,25 +4929,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
       <c r="E149">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F149" t="s">
         <v>190</v>
       </c>
       <c r="G149">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H149" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -4853,25 +4956,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
       <c r="E150">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F150" t="s">
         <v>191</v>
       </c>
       <c r="G150">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H150" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4880,25 +4983,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
       </c>
       <c r="E151">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F151" t="s">
         <v>192</v>
       </c>
       <c r="G151">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H151" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -4907,25 +5010,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
       </c>
       <c r="E152">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F152" t="s">
         <v>193</v>
       </c>
       <c r="G152">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H152" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -4934,25 +5037,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F153" t="s">
         <v>194</v>
       </c>
       <c r="G153">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -4961,25 +5064,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
       </c>
       <c r="E154">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F154" t="s">
         <v>195</v>
       </c>
       <c r="G154">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4988,25 +5091,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F155" t="s">
         <v>196</v>
       </c>
       <c r="G155">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H155" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -5015,25 +5118,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
       </c>
       <c r="E156">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F156" t="s">
         <v>197</v>
       </c>
       <c r="G156">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H156" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -5042,25 +5145,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F157" t="s">
         <v>198</v>
       </c>
       <c r="G157">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H157" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -5069,25 +5172,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="E158">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F158" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G158">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -5096,25 +5199,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="E159">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F159" t="s">
         <v>201</v>
       </c>
       <c r="G159">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H159" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -5123,25 +5226,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
       </c>
       <c r="E160">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F160" t="s">
         <v>202</v>
       </c>
       <c r="G160">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H160" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -5150,25 +5253,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F161" t="s">
         <v>203</v>
       </c>
       <c r="G161">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H161" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -5177,25 +5280,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F162" t="s">
         <v>204</v>
       </c>
       <c r="G162">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H162" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5204,25 +5307,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
       </c>
       <c r="E163">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F163" t="s">
         <v>205</v>
       </c>
       <c r="G163">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H163" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -5231,25 +5334,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
       </c>
       <c r="E164">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F164" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G164">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H164" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -5258,25 +5361,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
       </c>
       <c r="E165">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F165" t="s">
         <v>208</v>
       </c>
       <c r="G165">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H165" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -5285,25 +5388,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F166" t="s">
         <v>209</v>
       </c>
       <c r="G166">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H166" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -5312,25 +5415,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F167" t="s">
         <v>210</v>
       </c>
       <c r="G167">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H167" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -5339,25 +5442,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C168" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F168" t="s">
         <v>211</v>
       </c>
       <c r="G168">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H168" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -5366,25 +5469,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C169" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
       </c>
       <c r="E169">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F169" t="s">
         <v>212</v>
       </c>
       <c r="G169">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H169" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -5393,25 +5496,25 @@
         <v>p_crash2</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F170" t="s">
-        <v>213</v>
-      </c>
-      <c r="G170">
-        <v>92</v>
+        <v>47</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="H170" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -5420,330 +5523,326 @@
         <v>p_crash2</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
       </c>
       <c r="E171">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H171" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G171">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>6</v>
       </c>
-      <c r="B172" t="str">
-        <f t="shared" si="0"/>
-        <v>p_crash2</v>
+      <c r="B172" t="s">
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
       </c>
       <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" t="s">
+        <v>135</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>214</v>
+      </c>
+      <c r="C173" t="s">
+        <v>215</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>216</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>214</v>
+      </c>
+      <c r="C174" t="s">
+        <v>215</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174">
         <v>99</v>
       </c>
-      <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172">
+      <c r="F174" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174">
         <v>99</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" t="s">
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>214</v>
+      </c>
+      <c r="C175" t="s">
         <v>215</v>
       </c>
-      <c r="C173" t="s">
-        <v>216</v>
-      </c>
-      <c r="D173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173">
+      <c r="D175" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>217</v>
+      </c>
+      <c r="G175" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>218</v>
+      </c>
+      <c r="C176" t="s">
+        <v>226</v>
+      </c>
+      <c r="D176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176">
         <v>0</v>
       </c>
-      <c r="F173" t="s">
-        <v>136</v>
-      </c>
-      <c r="G173">
+      <c r="F176" t="s">
+        <v>135</v>
+      </c>
+      <c r="G176">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>6</v>
-      </c>
-      <c r="B174" t="s">
-        <v>215</v>
-      </c>
-      <c r="C174" t="s">
-        <v>216</v>
-      </c>
-      <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174">
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177" t="s">
+        <v>226</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177">
         <v>1</v>
       </c>
-      <c r="F174" t="s">
-        <v>217</v>
-      </c>
-      <c r="G174">
+      <c r="F177" t="s">
+        <v>219</v>
+      </c>
+      <c r="G177">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>6</v>
-      </c>
-      <c r="B175" t="s">
-        <v>215</v>
-      </c>
-      <c r="C175" t="s">
-        <v>216</v>
-      </c>
-      <c r="D175" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175">
-        <v>99</v>
-      </c>
-      <c r="F175" t="s">
-        <v>47</v>
-      </c>
-      <c r="G175">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" t="s">
-        <v>216</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176">
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>218</v>
+      </c>
+      <c r="C178" t="s">
+        <v>226</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178">
         <v>2</v>
-      </c>
-      <c r="F176" t="s">
-        <v>218</v>
-      </c>
-      <c r="G176" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" t="s">
-        <v>219</v>
-      </c>
-      <c r="C177" t="s">
-        <v>227</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177" t="s">
-        <v>136</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" t="s">
-        <v>219</v>
-      </c>
-      <c r="C178" t="s">
-        <v>227</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
       </c>
       <c r="F178" t="s">
         <v>220</v>
       </c>
       <c r="G178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C179" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D179" t="s">
         <v>15</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F179" t="s">
         <v>221</v>
       </c>
       <c r="G179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D180" t="s">
         <v>15</v>
       </c>
       <c r="E180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F180" t="s">
         <v>222</v>
       </c>
       <c r="G180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C181" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
       </c>
       <c r="E181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F181" t="s">
         <v>223</v>
       </c>
       <c r="G181">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D182" t="s">
         <v>15</v>
       </c>
       <c r="E182">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F182" t="s">
         <v>224</v>
       </c>
       <c r="G182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D183" t="s">
         <v>15</v>
       </c>
       <c r="E183">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F183" t="s">
         <v>225</v>
       </c>
       <c r="G183">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C184" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
       </c>
       <c r="E184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F184" t="s">
-        <v>226</v>
-      </c>
-      <c r="G184">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C185" t="s">
         <v>227</v>
@@ -5752,977 +5851,1391 @@
         <v>15</v>
       </c>
       <c r="E185">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F185" t="s">
+        <v>228</v>
+      </c>
+      <c r="G185">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" t="s">
+        <v>227</v>
+      </c>
+      <c r="D186" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>228</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187" t="s">
+        <v>227</v>
+      </c>
+      <c r="D187" t="s">
+        <v>15</v>
+      </c>
+      <c r="E187">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>228</v>
+      </c>
+      <c r="G187">
+        <v>6</v>
+      </c>
+      <c r="H187" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>260</v>
+      </c>
+      <c r="C188" t="s">
+        <v>227</v>
+      </c>
+      <c r="D188" t="s">
+        <v>15</v>
+      </c>
+      <c r="E188">
+        <v>50</v>
+      </c>
+      <c r="F188" t="s">
+        <v>228</v>
+      </c>
+      <c r="G188">
+        <v>50</v>
+      </c>
+      <c r="H188" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>260</v>
+      </c>
+      <c r="C189" t="s">
+        <v>227</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189">
+        <v>51</v>
+      </c>
+      <c r="F189" t="s">
+        <v>228</v>
+      </c>
+      <c r="G189">
+        <v>51</v>
+      </c>
+      <c r="H189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>260</v>
+      </c>
+      <c r="C190" t="s">
+        <v>227</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="E190">
+        <v>99</v>
+      </c>
+      <c r="F190" t="s">
         <v>18</v>
       </c>
-      <c r="G185" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" t="s">
-        <v>261</v>
-      </c>
-      <c r="C186" t="s">
-        <v>228</v>
-      </c>
-      <c r="D186" t="s">
-        <v>15</v>
-      </c>
-      <c r="E186">
-        <v>13</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="G190">
+        <v>99</v>
+      </c>
+      <c r="H190" t="s">
         <v>229</v>
       </c>
-      <c r="G186">
-        <v>13</v>
-      </c>
-      <c r="H186" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" t="s">
-        <v>261</v>
-      </c>
-      <c r="C187" t="s">
-        <v>228</v>
-      </c>
-      <c r="D187" t="s">
-        <v>15</v>
-      </c>
-      <c r="E187">
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>260</v>
+      </c>
+      <c r="C191" t="s">
+        <v>227</v>
+      </c>
+      <c r="D191" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191">
+        <v>98</v>
+      </c>
+      <c r="F191" t="s">
+        <v>47</v>
+      </c>
+      <c r="G191" t="s">
+        <v>284</v>
+      </c>
+      <c r="H191" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>234</v>
+      </c>
+      <c r="B192" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" t="s">
+        <v>236</v>
+      </c>
+      <c r="D192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E192">
         <v>1</v>
       </c>
-      <c r="F187" t="s">
-        <v>229</v>
-      </c>
-      <c r="G187">
+      <c r="F192" t="s">
+        <v>236</v>
+      </c>
+      <c r="G192">
         <v>1</v>
       </c>
-      <c r="H187" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" t="s">
-        <v>261</v>
-      </c>
-      <c r="C188" t="s">
-        <v>228</v>
-      </c>
-      <c r="D188" t="s">
-        <v>15</v>
-      </c>
-      <c r="E188">
-        <v>6</v>
-      </c>
-      <c r="F188" t="s">
-        <v>229</v>
-      </c>
-      <c r="G188">
-        <v>6</v>
-      </c>
-      <c r="H188" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" t="s">
-        <v>261</v>
-      </c>
-      <c r="C189" t="s">
-        <v>228</v>
-      </c>
-      <c r="D189" t="s">
-        <v>15</v>
-      </c>
-      <c r="E189">
-        <v>50</v>
-      </c>
-      <c r="F189" t="s">
-        <v>229</v>
-      </c>
-      <c r="G189">
-        <v>50</v>
-      </c>
-      <c r="H189" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" t="s">
-        <v>261</v>
-      </c>
-      <c r="C190" t="s">
-        <v>228</v>
-      </c>
-      <c r="D190" t="s">
-        <v>15</v>
-      </c>
-      <c r="E190">
-        <v>51</v>
-      </c>
-      <c r="F190" t="s">
-        <v>229</v>
-      </c>
-      <c r="G190">
-        <v>51</v>
-      </c>
-      <c r="H190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>6</v>
-      </c>
-      <c r="B191" t="s">
-        <v>261</v>
-      </c>
-      <c r="C191" t="s">
-        <v>228</v>
-      </c>
-      <c r="D191" t="s">
-        <v>15</v>
-      </c>
-      <c r="E191">
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>234</v>
+      </c>
+      <c r="B193" t="s">
+        <v>235</v>
+      </c>
+      <c r="C193" t="s">
+        <v>236</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>234</v>
+      </c>
+      <c r="B194" t="s">
+        <v>235</v>
+      </c>
+      <c r="C194" t="s">
+        <v>236</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194" t="s">
+        <v>47</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>234</v>
+      </c>
+      <c r="B195" t="s">
+        <v>237</v>
+      </c>
+      <c r="C195" t="s">
+        <v>244</v>
+      </c>
+      <c r="D195" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195">
         <v>99</v>
       </c>
-      <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191">
+      <c r="F195" t="s">
+        <v>246</v>
+      </c>
+      <c r="G195">
         <v>99</v>
       </c>
-      <c r="H191" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B192" t="s">
-        <v>261</v>
-      </c>
-      <c r="C192" t="s">
-        <v>228</v>
-      </c>
-      <c r="D192" t="s">
-        <v>15</v>
-      </c>
-      <c r="E192">
-        <v>98</v>
-      </c>
-      <c r="F192" t="s">
-        <v>48</v>
-      </c>
-      <c r="G192" t="s">
-        <v>285</v>
-      </c>
-      <c r="H192" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>235</v>
-      </c>
-      <c r="B193" t="s">
-        <v>236</v>
-      </c>
-      <c r="C193" t="s">
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" t="s">
         <v>237</v>
       </c>
-      <c r="D193" t="s">
-        <v>15</v>
-      </c>
-      <c r="E193">
+      <c r="C196" t="s">
+        <v>244</v>
+      </c>
+      <c r="D196" t="s">
+        <v>15</v>
+      </c>
+      <c r="E196">
         <v>1</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F196" t="s">
+        <v>238</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>234</v>
+      </c>
+      <c r="B197" t="s">
         <v>237</v>
       </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>235</v>
-      </c>
-      <c r="B194" t="s">
-        <v>236</v>
-      </c>
-      <c r="C194" t="s">
-        <v>237</v>
-      </c>
-      <c r="D194" t="s">
-        <v>15</v>
-      </c>
-      <c r="E194">
+      <c r="C197" t="s">
+        <v>244</v>
+      </c>
+      <c r="D197" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197">
         <v>2</v>
-      </c>
-      <c r="F194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>235</v>
-      </c>
-      <c r="B195" t="s">
-        <v>236</v>
-      </c>
-      <c r="C195" t="s">
-        <v>237</v>
-      </c>
-      <c r="D195" t="s">
-        <v>15</v>
-      </c>
-      <c r="E195">
-        <v>3</v>
-      </c>
-      <c r="F195" t="s">
-        <v>48</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>235</v>
-      </c>
-      <c r="B196" t="s">
-        <v>238</v>
-      </c>
-      <c r="C196" t="s">
-        <v>245</v>
-      </c>
-      <c r="D196" t="s">
-        <v>15</v>
-      </c>
-      <c r="E196">
-        <v>99</v>
-      </c>
-      <c r="F196" t="s">
-        <v>247</v>
-      </c>
-      <c r="G196">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>235</v>
-      </c>
-      <c r="B197" t="s">
-        <v>238</v>
-      </c>
-      <c r="C197" t="s">
-        <v>245</v>
-      </c>
-      <c r="D197" t="s">
-        <v>15</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
       </c>
       <c r="F197" t="s">
         <v>239</v>
       </c>
       <c r="G197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C198" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F198" t="s">
         <v>240</v>
       </c>
       <c r="G198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C199" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
       </c>
       <c r="E199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F199" t="s">
         <v>241</v>
       </c>
       <c r="G199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C200" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
       </c>
       <c r="E200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F200" t="s">
         <v>242</v>
       </c>
       <c r="G200">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C201" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
       </c>
       <c r="E201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F201" t="s">
         <v>243</v>
       </c>
-      <c r="G201">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B202" t="s">
+        <v>237</v>
+      </c>
+      <c r="C202" t="s">
+        <v>244</v>
+      </c>
+      <c r="D202" t="s">
+        <v>15</v>
+      </c>
+      <c r="E202">
+        <v>7</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203" t="s">
+        <v>245</v>
+      </c>
+      <c r="C203" t="s">
+        <v>244</v>
+      </c>
+      <c r="D203" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
         <v>238</v>
       </c>
-      <c r="C202" t="s">
+      <c r="G203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>234</v>
+      </c>
+      <c r="B204" t="s">
         <v>245</v>
       </c>
-      <c r="D202" t="s">
-        <v>15</v>
-      </c>
-      <c r="E202">
-        <v>6</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="C204" t="s">
         <v>244</v>
       </c>
-      <c r="G202" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>235</v>
-      </c>
-      <c r="B203" t="s">
-        <v>238</v>
-      </c>
-      <c r="C203" t="s">
-        <v>245</v>
-      </c>
-      <c r="D203" t="s">
-        <v>15</v>
-      </c>
-      <c r="E203">
-        <v>7</v>
-      </c>
-      <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>235</v>
-      </c>
-      <c r="B204" t="s">
-        <v>246</v>
-      </c>
-      <c r="C204" t="s">
-        <v>245</v>
-      </c>
       <c r="D204" t="s">
         <v>15</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204" t="s">
         <v>239</v>
       </c>
       <c r="G204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B205" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C205" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
       </c>
       <c r="E205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F205" t="s">
         <v>240</v>
       </c>
       <c r="G205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B206" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C206" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F206" t="s">
         <v>241</v>
       </c>
       <c r="G206">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B207" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C207" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D207" t="s">
         <v>15</v>
       </c>
       <c r="E207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F207" t="s">
         <v>242</v>
       </c>
       <c r="G207">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B208" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C208" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
       </c>
       <c r="E208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F208" t="s">
         <v>243</v>
       </c>
-      <c r="G208">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G208" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B209" t="s">
+        <v>245</v>
+      </c>
+      <c r="C209" t="s">
+        <v>244</v>
+      </c>
+      <c r="D209" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209">
+        <v>7</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>234</v>
+      </c>
+      <c r="B210" t="s">
+        <v>245</v>
+      </c>
+      <c r="C210" t="s">
+        <v>244</v>
+      </c>
+      <c r="D210" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210">
+        <v>99</v>
+      </c>
+      <c r="F210" t="s">
         <v>246</v>
       </c>
-      <c r="C209" t="s">
-        <v>245</v>
-      </c>
-      <c r="D209" t="s">
-        <v>15</v>
-      </c>
-      <c r="E209">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>244</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>235</v>
-      </c>
-      <c r="B210" t="s">
-        <v>246</v>
-      </c>
-      <c r="C210" t="s">
-        <v>245</v>
-      </c>
-      <c r="D210" t="s">
-        <v>15</v>
-      </c>
-      <c r="E210">
-        <v>7</v>
-      </c>
-      <c r="F210" t="s">
-        <v>18</v>
-      </c>
       <c r="G210">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B211" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C211" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
       </c>
       <c r="E211">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
+        <v>249</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>234</v>
+      </c>
+      <c r="B212" t="s">
         <v>247</v>
       </c>
-      <c r="G211">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>235</v>
-      </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>248</v>
       </c>
-      <c r="C212" t="s">
-        <v>249</v>
-      </c>
       <c r="D212" t="s">
         <v>15</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212" t="s">
         <v>250</v>
       </c>
       <c r="G212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>234</v>
+      </c>
+      <c r="B213" t="s">
+        <v>247</v>
+      </c>
+      <c r="C213" t="s">
+        <v>248</v>
+      </c>
+      <c r="D213" t="s">
+        <v>15</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="F213" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>234</v>
+      </c>
+      <c r="B214" t="s">
+        <v>247</v>
+      </c>
+      <c r="C214" t="s">
+        <v>248</v>
+      </c>
+      <c r="D214" t="s">
+        <v>15</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="F214" t="s">
+        <v>52</v>
+      </c>
+      <c r="G214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>234</v>
+      </c>
+      <c r="B215" t="s">
+        <v>247</v>
+      </c>
+      <c r="C215" t="s">
+        <v>248</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+      <c r="F215" t="s">
+        <v>47</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>261</v>
+      </c>
+      <c r="C216" t="s">
+        <v>262</v>
+      </c>
+      <c r="D216" t="s">
+        <v>15</v>
+      </c>
+      <c r="E216">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>235</v>
-      </c>
-      <c r="B213" t="s">
-        <v>248</v>
-      </c>
-      <c r="C213" t="s">
-        <v>249</v>
-      </c>
-      <c r="D213" t="s">
-        <v>15</v>
-      </c>
-      <c r="E213">
+      <c r="F216" t="s">
+        <v>263</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>261</v>
+      </c>
+      <c r="C217" t="s">
+        <v>262</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217">
         <v>2</v>
-      </c>
-      <c r="F213" t="s">
-        <v>251</v>
-      </c>
-      <c r="G213">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>235</v>
-      </c>
-      <c r="B214" t="s">
-        <v>248</v>
-      </c>
-      <c r="C214" t="s">
-        <v>249</v>
-      </c>
-      <c r="D214" t="s">
-        <v>15</v>
-      </c>
-      <c r="E214">
-        <v>3</v>
-      </c>
-      <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>235</v>
-      </c>
-      <c r="B215" t="s">
-        <v>248</v>
-      </c>
-      <c r="C215" t="s">
-        <v>249</v>
-      </c>
-      <c r="D215" t="s">
-        <v>15</v>
-      </c>
-      <c r="E215">
-        <v>4</v>
-      </c>
-      <c r="F215" t="s">
-        <v>53</v>
-      </c>
-      <c r="G215">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>235</v>
-      </c>
-      <c r="B216" t="s">
-        <v>248</v>
-      </c>
-      <c r="C216" t="s">
-        <v>249</v>
-      </c>
-      <c r="D216" t="s">
-        <v>15</v>
-      </c>
-      <c r="E216">
-        <v>5</v>
-      </c>
-      <c r="F216" t="s">
-        <v>48</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>262</v>
-      </c>
-      <c r="C217" t="s">
-        <v>263</v>
-      </c>
-      <c r="D217" t="s">
-        <v>15</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
       </c>
       <c r="F217" t="s">
         <v>264</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="G217" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" t="s">
+        <v>262</v>
+      </c>
+      <c r="D218" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
+      <c r="G218" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>261</v>
+      </c>
+      <c r="C219" t="s">
         <v>262</v>
       </c>
-      <c r="C218" t="s">
-        <v>263</v>
-      </c>
-      <c r="D218" t="s">
-        <v>15</v>
-      </c>
-      <c r="E218">
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
+      <c r="F219" t="s">
+        <v>269</v>
+      </c>
+      <c r="G219" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>261</v>
+      </c>
+      <c r="C220" t="s">
+        <v>262</v>
+      </c>
+      <c r="D220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220" t="s">
+        <v>271</v>
+      </c>
+      <c r="G220" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>261</v>
+      </c>
+      <c r="C221" t="s">
+        <v>262</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>273</v>
+      </c>
+      <c r="G221" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>261</v>
+      </c>
+      <c r="C222" t="s">
+        <v>262</v>
+      </c>
+      <c r="D222" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222">
+        <v>7</v>
+      </c>
+      <c r="F222" t="s">
+        <v>275</v>
+      </c>
+      <c r="G222">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>261</v>
+      </c>
+      <c r="C223" t="s">
+        <v>262</v>
+      </c>
+      <c r="D223" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>39</v>
+      </c>
+      <c r="G223" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>261</v>
+      </c>
+      <c r="C224" t="s">
+        <v>262</v>
+      </c>
+      <c r="D224" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224">
+        <v>998</v>
+      </c>
+      <c r="F224" t="s">
+        <v>277</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>261</v>
+      </c>
+      <c r="C225" t="s">
+        <v>262</v>
+      </c>
+      <c r="D225" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225">
+        <v>999</v>
+      </c>
+      <c r="F225" t="s">
+        <v>82</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>306</v>
+      </c>
+      <c r="B226" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" t="s">
+        <v>33</v>
+      </c>
+      <c r="D226" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>34</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>306</v>
+      </c>
+      <c r="B227" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" t="s">
+        <v>33</v>
+      </c>
+      <c r="D227" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227">
         <v>2</v>
       </c>
-      <c r="F218" t="s">
-        <v>265</v>
-      </c>
-      <c r="G218" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>262</v>
-      </c>
-      <c r="C219" t="s">
-        <v>263</v>
-      </c>
-      <c r="D219" t="s">
-        <v>15</v>
-      </c>
-      <c r="E219">
+      <c r="F227" t="s">
+        <v>35</v>
+      </c>
+      <c r="G227" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>306</v>
+      </c>
+      <c r="B228" t="s">
+        <v>32</v>
+      </c>
+      <c r="C228" t="s">
+        <v>33</v>
+      </c>
+      <c r="D228" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228">
         <v>3</v>
       </c>
-      <c r="F219" t="s">
-        <v>268</v>
-      </c>
-      <c r="G219" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>262</v>
-      </c>
-      <c r="C220" t="s">
-        <v>263</v>
-      </c>
-      <c r="D220" t="s">
-        <v>15</v>
-      </c>
-      <c r="E220">
+      <c r="F228" t="s">
+        <v>36</v>
+      </c>
+      <c r="G228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>306</v>
+      </c>
+      <c r="B229" t="s">
+        <v>32</v>
+      </c>
+      <c r="C229" t="s">
+        <v>33</v>
+      </c>
+      <c r="D229" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229">
         <v>4</v>
       </c>
-      <c r="F220" t="s">
-        <v>270</v>
-      </c>
-      <c r="G220" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>262</v>
-      </c>
-      <c r="C221" t="s">
-        <v>263</v>
-      </c>
-      <c r="D221" t="s">
-        <v>15</v>
-      </c>
-      <c r="E221">
+      <c r="F229" t="s">
+        <v>42</v>
+      </c>
+      <c r="G229" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>306</v>
+      </c>
+      <c r="B230" t="s">
+        <v>32</v>
+      </c>
+      <c r="C230" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230">
         <v>5</v>
       </c>
-      <c r="F221" t="s">
-        <v>272</v>
-      </c>
-      <c r="G221" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>262</v>
-      </c>
-      <c r="C222" t="s">
-        <v>263</v>
-      </c>
-      <c r="D222" t="s">
-        <v>15</v>
-      </c>
-      <c r="E222">
-        <v>6</v>
-      </c>
-      <c r="F222" t="s">
-        <v>274</v>
-      </c>
-      <c r="G222" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>262</v>
-      </c>
-      <c r="C223" t="s">
-        <v>263</v>
-      </c>
-      <c r="D223" t="s">
-        <v>15</v>
-      </c>
-      <c r="E223">
+      <c r="F230" t="s">
+        <v>38</v>
+      </c>
+      <c r="G230" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>306</v>
+      </c>
+      <c r="B231" t="s">
+        <v>32</v>
+      </c>
+      <c r="C231" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>43</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>306</v>
+      </c>
+      <c r="B232" t="s">
+        <v>32</v>
+      </c>
+      <c r="C232" t="s">
+        <v>33</v>
+      </c>
+      <c r="D232" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232">
         <v>7</v>
       </c>
-      <c r="F223" t="s">
-        <v>276</v>
-      </c>
-      <c r="G223">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>262</v>
-      </c>
-      <c r="C224" t="s">
-        <v>263</v>
-      </c>
-      <c r="D224" t="s">
-        <v>15</v>
-      </c>
-      <c r="E224">
+      <c r="F232" t="s">
+        <v>45</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>306</v>
+      </c>
+      <c r="B233" t="s">
+        <v>32</v>
+      </c>
+      <c r="C233" t="s">
+        <v>33</v>
+      </c>
+      <c r="D233" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233">
+        <v>8</v>
+      </c>
+      <c r="F233" t="s">
+        <v>37</v>
+      </c>
+      <c r="G233" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>306</v>
+      </c>
+      <c r="B234" t="s">
+        <v>32</v>
+      </c>
+      <c r="C234" t="s">
+        <v>33</v>
+      </c>
+      <c r="D234" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234">
         <v>9</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F234" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>306</v>
+      </c>
+      <c r="B235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235">
+        <v>10</v>
+      </c>
+      <c r="F235" t="s">
+        <v>39</v>
+      </c>
+      <c r="G235" t="s">
         <v>40</v>
       </c>
-      <c r="G224" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>262</v>
-      </c>
-      <c r="C225" t="s">
-        <v>263</v>
-      </c>
-      <c r="D225" t="s">
-        <v>15</v>
-      </c>
-      <c r="E225">
-        <v>998</v>
-      </c>
-      <c r="F225" t="s">
-        <v>278</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>262</v>
-      </c>
-      <c r="C226" t="s">
-        <v>263</v>
-      </c>
-      <c r="D226" t="s">
-        <v>15</v>
-      </c>
-      <c r="E226">
-        <v>999</v>
-      </c>
-      <c r="F226" t="s">
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>306</v>
+      </c>
+      <c r="B236" t="s">
+        <v>32</v>
+      </c>
+      <c r="C236" t="s">
+        <v>33</v>
+      </c>
+      <c r="D236" t="s">
+        <v>15</v>
+      </c>
+      <c r="E236">
+        <v>99</v>
+      </c>
+      <c r="F236" t="s">
+        <v>46</v>
+      </c>
+      <c r="G236" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>306</v>
+      </c>
+      <c r="B237" t="s">
+        <v>32</v>
+      </c>
+      <c r="C237" t="s">
+        <v>33</v>
+      </c>
+      <c r="D237" t="s">
+        <v>15</v>
+      </c>
+      <c r="E237">
+        <v>11</v>
+      </c>
+      <c r="F237" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>306</v>
+      </c>
+      <c r="B238" t="s">
         <v>83</v>
       </c>
-      <c r="G226" s="2" t="s">
-        <v>283</v>
+      <c r="C238" t="s">
+        <v>84</v>
+      </c>
+      <c r="D238" t="s">
+        <v>15</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238" t="s">
+        <v>85</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>306</v>
+      </c>
+      <c r="B239" t="s">
+        <v>83</v>
+      </c>
+      <c r="C239" t="s">
+        <v>84</v>
+      </c>
+      <c r="D239" t="s">
+        <v>15</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" t="s">
+        <v>86</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>306</v>
+      </c>
+      <c r="B240" t="s">
+        <v>83</v>
+      </c>
+      <c r="C240" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240" t="s">
+        <v>88</v>
+      </c>
+      <c r="G240" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>306</v>
+      </c>
+      <c r="B241" t="s">
+        <v>83</v>
+      </c>
+      <c r="C241" t="s">
+        <v>84</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241" t="s">
+        <v>87</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>306</v>
+      </c>
+      <c r="B242" t="s">
+        <v>83</v>
+      </c>
+      <c r="C242" t="s">
+        <v>84</v>
+      </c>
+      <c r="D242" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242">
+        <v>4</v>
+      </c>
+      <c r="F242" t="s">
+        <v>90</v>
+      </c>
+      <c r="G242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>306</v>
+      </c>
+      <c r="B243" t="s">
+        <v>83</v>
+      </c>
+      <c r="C243" t="s">
+        <v>84</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243">
+        <v>6</v>
+      </c>
+      <c r="F243" t="s">
+        <v>91</v>
+      </c>
+      <c r="G243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>306</v>
+      </c>
+      <c r="B244" t="s">
+        <v>83</v>
+      </c>
+      <c r="C244" t="s">
+        <v>84</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s">
+        <v>46</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6732,21 +7245,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9377E8BA-32EA-4470-BF72-F967469A136A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6760,7 +7273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6771,37 +7284,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6810,12 +7323,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF40FEA8-5F70-4689-8D16-9FA1A5355B77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
